--- a/Final_Mass_Gains.xlsx
+++ b/Final_Mass_Gains.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saswatmishra/Library/CloudStorage/Box-Box/DMREF CCAs/Diffusion Multiple Position Selection/diffusion-multiple-position-selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilbejjipurapu/Library/CloudStorage/Box-Box/DMREF CCAs/Diffusion Multiple Position Selection/diffusion-multiple-position-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E0EDF-72FA-184A-8BA0-9006CE5F0573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE5745-C9A4-7842-9E73-00C11B41D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diffusion_Couples" sheetId="1" r:id="rId1"/>
     <sheet name="Group2(16-31)" sheetId="5" r:id="rId2"/>
     <sheet name="Individual Alloys" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="922">
   <si>
     <t>Diffusion Couples</t>
   </si>
@@ -853,51 +850,6 @@
     <t>[0.5487214729309188, 0.5487208436738891, 0.5487191704532212, 0.4286360152008093, 0.42863590664567114, 0.4286359016866684, 0.42863589468111224, 0.4404035783032152, 0.4404034506698105]</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Alloy</t>
   </si>
   <si>
@@ -908,13 +860,1954 @@
   </si>
   <si>
     <t>Mass_gain_Std.Deviation</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Al40.0Mo5.0V50.0Cr5.0</t>
+  </si>
+  <si>
+    <t>Al40.0V50.0Nb5.0Cr5.0</t>
+  </si>
+  <si>
+    <t>Al40.0V50.0W5.0Cr5.0</t>
+  </si>
+  <si>
+    <t>Al40.0Mo5.0V50.0Nb5.0</t>
+  </si>
+  <si>
+    <t>Al40.0Mo5.0V50.0W5.0</t>
+  </si>
+  <si>
+    <t>Al40.0V50.0Nb5.0W5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf5.0Nb5.0Zr85.0</t>
+  </si>
+  <si>
+    <t>Al5.0Mo5.0Nb5.0Zr85.0</t>
+  </si>
+  <si>
+    <t>Al25.0Mo15.0Ti30.0Cr30.0</t>
+  </si>
+  <si>
+    <t>Al5.0V5.0Nb5.0Zr85.0</t>
+  </si>
+  <si>
+    <t>Al5.0Nb5.0Zr85.0Ti5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf5.0Mo85.0W5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf5.0Nb80.0W10.0</t>
+  </si>
+  <si>
+    <t>Al20.0Mo5.0Ta5.0Ti70.0</t>
+  </si>
+  <si>
+    <t>Al5.0Nb5.0Ta35.0Ti55.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf5.0Ti85.0Cr5.0</t>
+  </si>
+  <si>
+    <t>Al25.0Mo10.0Ta5.0Ti60.0</t>
+  </si>
+  <si>
+    <t>Al5.0V5.0Nb85.0Zr5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Nb15.0Zr35.0Ti45.0</t>
+  </si>
+  <si>
+    <t>Al5.0Nb85.0Ta5.0Ti5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf5.0Mo85.0Nb5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Ta25.0Ti65.0W5.0</t>
+  </si>
+  <si>
+    <t>Al5.0V10.0Nb25.0Zr60.0</t>
+  </si>
+  <si>
+    <t>Al20.0Nb5.0Ta15.0Ti60.0</t>
+  </si>
+  <si>
+    <t>Al5.0Mo10.0Zr30.0Ti55.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf5.0Mo85.0V5.0</t>
+  </si>
+  <si>
+    <t>Al5.0Hf40.0Nb40.0Ti15.0</t>
+  </si>
+  <si>
+    <t>Al30.0Mo20.0Nb20.0Ti30.0</t>
+  </si>
+  <si>
+    <t>Al10.0V10.0Nb50.0Ti30.0</t>
+  </si>
+  <si>
+    <t>Al5.0Mo5.0Nb80.0W10.0</t>
+  </si>
+  <si>
+    <t>Al15.0Mo30.0Ti30.0Cr25.0</t>
+  </si>
+  <si>
+    <t>1_16</t>
+  </si>
+  <si>
+    <t>1_17</t>
+  </si>
+  <si>
+    <t>1_18</t>
+  </si>
+  <si>
+    <t>1_19</t>
+  </si>
+  <si>
+    <t>1_20</t>
+  </si>
+  <si>
+    <t>1_21</t>
+  </si>
+  <si>
+    <t>1_23</t>
+  </si>
+  <si>
+    <t>1_24</t>
+  </si>
+  <si>
+    <t>1_26</t>
+  </si>
+  <si>
+    <t>1_27</t>
+  </si>
+  <si>
+    <t>1_28</t>
+  </si>
+  <si>
+    <t>1_29</t>
+  </si>
+  <si>
+    <t>1_30</t>
+  </si>
+  <si>
+    <t>1_31</t>
+  </si>
+  <si>
+    <t>2_16</t>
+  </si>
+  <si>
+    <t>2_17</t>
+  </si>
+  <si>
+    <t>2_18</t>
+  </si>
+  <si>
+    <t>2_19</t>
+  </si>
+  <si>
+    <t>2_20</t>
+  </si>
+  <si>
+    <t>2_21</t>
+  </si>
+  <si>
+    <t>2_23</t>
+  </si>
+  <si>
+    <t>2_24</t>
+  </si>
+  <si>
+    <t>2_25</t>
+  </si>
+  <si>
+    <t>2_26</t>
+  </si>
+  <si>
+    <t>2_27</t>
+  </si>
+  <si>
+    <t>2_28</t>
+  </si>
+  <si>
+    <t>2_29</t>
+  </si>
+  <si>
+    <t>2_31</t>
+  </si>
+  <si>
+    <t>3_17</t>
+  </si>
+  <si>
+    <t>3_18</t>
+  </si>
+  <si>
+    <t>3_19</t>
+  </si>
+  <si>
+    <t>3_20</t>
+  </si>
+  <si>
+    <t>3_21</t>
+  </si>
+  <si>
+    <t>3_22</t>
+  </si>
+  <si>
+    <t>3_23</t>
+  </si>
+  <si>
+    <t>3_24</t>
+  </si>
+  <si>
+    <t>3_26</t>
+  </si>
+  <si>
+    <t>3_27</t>
+  </si>
+  <si>
+    <t>3_28</t>
+  </si>
+  <si>
+    <t>3_30</t>
+  </si>
+  <si>
+    <t>3_31</t>
+  </si>
+  <si>
+    <t>4_17</t>
+  </si>
+  <si>
+    <t>4_18</t>
+  </si>
+  <si>
+    <t>4_19</t>
+  </si>
+  <si>
+    <t>4_20</t>
+  </si>
+  <si>
+    <t>4_21</t>
+  </si>
+  <si>
+    <t>4_22</t>
+  </si>
+  <si>
+    <t>4_23</t>
+  </si>
+  <si>
+    <t>4_24</t>
+  </si>
+  <si>
+    <t>4_25</t>
+  </si>
+  <si>
+    <t>4_26</t>
+  </si>
+  <si>
+    <t>4_27</t>
+  </si>
+  <si>
+    <t>4_28</t>
+  </si>
+  <si>
+    <t>4_29</t>
+  </si>
+  <si>
+    <t>4_30</t>
+  </si>
+  <si>
+    <t>4_31</t>
+  </si>
+  <si>
+    <t>5_16</t>
+  </si>
+  <si>
+    <t>5_17</t>
+  </si>
+  <si>
+    <t>5_19</t>
+  </si>
+  <si>
+    <t>5_20</t>
+  </si>
+  <si>
+    <t>5_21</t>
+  </si>
+  <si>
+    <t>5_22</t>
+  </si>
+  <si>
+    <t>5_23</t>
+  </si>
+  <si>
+    <t>5_25</t>
+  </si>
+  <si>
+    <t>5_26</t>
+  </si>
+  <si>
+    <t>5_27</t>
+  </si>
+  <si>
+    <t>5_28</t>
+  </si>
+  <si>
+    <t>5_29</t>
+  </si>
+  <si>
+    <t>5_30</t>
+  </si>
+  <si>
+    <t>5_31</t>
+  </si>
+  <si>
+    <t>6_16</t>
+  </si>
+  <si>
+    <t>6_17</t>
+  </si>
+  <si>
+    <t>6_18</t>
+  </si>
+  <si>
+    <t>6_19</t>
+  </si>
+  <si>
+    <t>6_20</t>
+  </si>
+  <si>
+    <t>6_21</t>
+  </si>
+  <si>
+    <t>6_22</t>
+  </si>
+  <si>
+    <t>6_23</t>
+  </si>
+  <si>
+    <t>6_24</t>
+  </si>
+  <si>
+    <t>6_27</t>
+  </si>
+  <si>
+    <t>6_28</t>
+  </si>
+  <si>
+    <t>6_29</t>
+  </si>
+  <si>
+    <t>6_30</t>
+  </si>
+  <si>
+    <t>6_31</t>
+  </si>
+  <si>
+    <t>7_17</t>
+  </si>
+  <si>
+    <t>7_19</t>
+  </si>
+  <si>
+    <t>7_20</t>
+  </si>
+  <si>
+    <t>7_22</t>
+  </si>
+  <si>
+    <t>7_23</t>
+  </si>
+  <si>
+    <t>7_26</t>
+  </si>
+  <si>
+    <t>7_27</t>
+  </si>
+  <si>
+    <t>7_28</t>
+  </si>
+  <si>
+    <t>7_29</t>
+  </si>
+  <si>
+    <t>7_31</t>
+  </si>
+  <si>
+    <t>8_16</t>
+  </si>
+  <si>
+    <t>8_17</t>
+  </si>
+  <si>
+    <t>8_18</t>
+  </si>
+  <si>
+    <t>8_19</t>
+  </si>
+  <si>
+    <t>8_21</t>
+  </si>
+  <si>
+    <t>8_22</t>
+  </si>
+  <si>
+    <t>8_23</t>
+  </si>
+  <si>
+    <t>8_25</t>
+  </si>
+  <si>
+    <t>8_26</t>
+  </si>
+  <si>
+    <t>8_27</t>
+  </si>
+  <si>
+    <t>8_28</t>
+  </si>
+  <si>
+    <t>8_29</t>
+  </si>
+  <si>
+    <t>8_30</t>
+  </si>
+  <si>
+    <t>8_31</t>
+  </si>
+  <si>
+    <t>9_16</t>
+  </si>
+  <si>
+    <t>9_17</t>
+  </si>
+  <si>
+    <t>9_18</t>
+  </si>
+  <si>
+    <t>9_19</t>
+  </si>
+  <si>
+    <t>9_20</t>
+  </si>
+  <si>
+    <t>9_21</t>
+  </si>
+  <si>
+    <t>9_22</t>
+  </si>
+  <si>
+    <t>9_23</t>
+  </si>
+  <si>
+    <t>9_24</t>
+  </si>
+  <si>
+    <t>9_27</t>
+  </si>
+  <si>
+    <t>9_28</t>
+  </si>
+  <si>
+    <t>9_29</t>
+  </si>
+  <si>
+    <t>9_30</t>
+  </si>
+  <si>
+    <t>9_31</t>
+  </si>
+  <si>
+    <t>10_16</t>
+  </si>
+  <si>
+    <t>10_17</t>
+  </si>
+  <si>
+    <t>10_18</t>
+  </si>
+  <si>
+    <t>10_19</t>
+  </si>
+  <si>
+    <t>10_20</t>
+  </si>
+  <si>
+    <t>10_21</t>
+  </si>
+  <si>
+    <t>10_22</t>
+  </si>
+  <si>
+    <t>10_23</t>
+  </si>
+  <si>
+    <t>10_24</t>
+  </si>
+  <si>
+    <t>10_25</t>
+  </si>
+  <si>
+    <t>10_26</t>
+  </si>
+  <si>
+    <t>10_27</t>
+  </si>
+  <si>
+    <t>10_28</t>
+  </si>
+  <si>
+    <t>10_29</t>
+  </si>
+  <si>
+    <t>10_30</t>
+  </si>
+  <si>
+    <t>10_31</t>
+  </si>
+  <si>
+    <t>11_16</t>
+  </si>
+  <si>
+    <t>11_17</t>
+  </si>
+  <si>
+    <t>11_18</t>
+  </si>
+  <si>
+    <t>11_19</t>
+  </si>
+  <si>
+    <t>11_20</t>
+  </si>
+  <si>
+    <t>11_21</t>
+  </si>
+  <si>
+    <t>11_22</t>
+  </si>
+  <si>
+    <t>11_23</t>
+  </si>
+  <si>
+    <t>11_24</t>
+  </si>
+  <si>
+    <t>11_26</t>
+  </si>
+  <si>
+    <t>11_27</t>
+  </si>
+  <si>
+    <t>11_28</t>
+  </si>
+  <si>
+    <t>11_29</t>
+  </si>
+  <si>
+    <t>11_30</t>
+  </si>
+  <si>
+    <t>11_31</t>
+  </si>
+  <si>
+    <t>12_16</t>
+  </si>
+  <si>
+    <t>12_17</t>
+  </si>
+  <si>
+    <t>12_18</t>
+  </si>
+  <si>
+    <t>12_19</t>
+  </si>
+  <si>
+    <t>12_20</t>
+  </si>
+  <si>
+    <t>12_21</t>
+  </si>
+  <si>
+    <t>12_23</t>
+  </si>
+  <si>
+    <t>12_24</t>
+  </si>
+  <si>
+    <t>12_26</t>
+  </si>
+  <si>
+    <t>12_27</t>
+  </si>
+  <si>
+    <t>12_28</t>
+  </si>
+  <si>
+    <t>12_29</t>
+  </si>
+  <si>
+    <t>12_30</t>
+  </si>
+  <si>
+    <t>13_16</t>
+  </si>
+  <si>
+    <t>13_17</t>
+  </si>
+  <si>
+    <t>13_18</t>
+  </si>
+  <si>
+    <t>13_19</t>
+  </si>
+  <si>
+    <t>13_20</t>
+  </si>
+  <si>
+    <t>13_21</t>
+  </si>
+  <si>
+    <t>13_22</t>
+  </si>
+  <si>
+    <t>13_23</t>
+  </si>
+  <si>
+    <t>13_24</t>
+  </si>
+  <si>
+    <t>13_25</t>
+  </si>
+  <si>
+    <t>13_26</t>
+  </si>
+  <si>
+    <t>13_27</t>
+  </si>
+  <si>
+    <t>13_28</t>
+  </si>
+  <si>
+    <t>13_29</t>
+  </si>
+  <si>
+    <t>13_30</t>
+  </si>
+  <si>
+    <t>13_31</t>
+  </si>
+  <si>
+    <t>14_16</t>
+  </si>
+  <si>
+    <t>14_17</t>
+  </si>
+  <si>
+    <t>14_18</t>
+  </si>
+  <si>
+    <t>14_19</t>
+  </si>
+  <si>
+    <t>14_20</t>
+  </si>
+  <si>
+    <t>14_21</t>
+  </si>
+  <si>
+    <t>14_22</t>
+  </si>
+  <si>
+    <t>14_23</t>
+  </si>
+  <si>
+    <t>14_24</t>
+  </si>
+  <si>
+    <t>14_25</t>
+  </si>
+  <si>
+    <t>14_26</t>
+  </si>
+  <si>
+    <t>14_27</t>
+  </si>
+  <si>
+    <t>14_28</t>
+  </si>
+  <si>
+    <t>14_29</t>
+  </si>
+  <si>
+    <t>14_31</t>
+  </si>
+  <si>
+    <t>15_16</t>
+  </si>
+  <si>
+    <t>15_17</t>
+  </si>
+  <si>
+    <t>15_18</t>
+  </si>
+  <si>
+    <t>15_19</t>
+  </si>
+  <si>
+    <t>15_20</t>
+  </si>
+  <si>
+    <t>15_21</t>
+  </si>
+  <si>
+    <t>15_22</t>
+  </si>
+  <si>
+    <t>17_26</t>
+  </si>
+  <si>
+    <t>[74.22671611602479, 75.78311663888286, 75.78302377532721, 75.78292902709406, 75.7828437369771, 97.79285713181814, 97.79281578548701, 97.79276818386172, 17.963569706253796, 17.148723851771294, 17.148740550432272]</t>
+  </si>
+  <si>
+    <t>[0.5738313644337271, 0.5796964920731521, 0.5796960454217711, 0.5796955177266796, 0.5796949685108129, 0.6159567676694863, 0.615956442103409, 0.615956030301507, 0.6013676182829073, 0.6018136271491393, 0.6018130841068479]</t>
+  </si>
+  <si>
+    <t>[27.094982141414537, 27.09502629254373, 27.094990243145702, 27.094963277533093, 27.094956322059122, 27.09495567315769, 27.094902547332225, 27.094860458368196, 27.094834935990843, 27.094826770709147, 96.15045264982722, 99.29045039443436]</t>
+  </si>
+  <si>
+    <t>[0.608484269289934, 0.6084852668795457, 0.6084851138390881, 0.6084849121831942, 0.6084847884765575, 0.6084847595945538, 0.6084843281994482, 0.6084839006854285, 0.608483569428784, 0.6084833719630758, 0.47990721381031265, 0.6271597657709499]</t>
+  </si>
+  <si>
+    <t>[105.09441262767758, 105.09425730044595, 105.09412238456166, 105.09398462812452, 105.09384601852992, 105.09378122612877, 105.09371433577219, 105.09363765151267, 7.808016011099487, 7.074188179220996]</t>
+  </si>
+  <si>
+    <t>[0.4706338711365174, 0.4706340579699756, 0.47063413364323986, 0.47063414623057487, 0.470634095380427, 0.47063405879025777, 0.47063400397037897, 0.4706339083602474, 0.5000593993316819, 0.5133569169826709]</t>
+  </si>
+  <si>
+    <t>[27.0948945686121, 27.0949660202358, 27.094979758686254, 27.094970413821997, 27.095000666655483, 27.09492606434685, 27.094881736046602, 27.09485258348279, 27.094822175552096, 27.09480795162307, 27.09480198399633, 96.15035801265714, 99.29035833406627]</t>
+  </si>
+  <si>
+    <t>[0.6084823307186246, 0.608483834309671, 0.6084843135055108, 0.6084844841785569, 0.6084848597201306, 0.6084844435897985, 0.6084841409375549, 0.6084838988398791, 0.608483575992248, 0.6084833634411293, 0.6084831552675425, 0.47990691522030027, 0.6271593544854784]</t>
+  </si>
+  <si>
+    <t>[19.146664101167275, 19.146683768848817, 19.14667563214064, 19.146674252243216, 19.14664172429155, 19.146601813857124, 19.146574595253444, 19.146542454410053, 19.14652441956896, 93.14019042568643, 93.14019928751773, 96.96886012011261]</t>
+  </si>
+  <si>
+    <t>[0.5509496430378493, 0.5509503860945942, 0.5509505461875229, 0.5509507351999273, 0.5509507295693574, 0.5509505978363693, 0.5509504860445833, 0.5509503115959046, 0.5509501911440835, 0.4400756496267118, 0.44007571276355295, 0.5468751393675964]</t>
+  </si>
+  <si>
+    <t>[67.09776774796944, 67.09768610328624, 67.09761592791493, 67.09754681301125, 87.50170534876429, 87.5016266758842, 83.21572143404106, 3.340881350905308, 3.3237172656237006, 3.295154736834904]</t>
+  </si>
+  <si>
+    <t>[0.33550364266226346, 0.3355036621715995, 0.3355036487129173, 0.3355036116407862, 0.3898122995981616, 0.38981219146884527, 0.38248155725299365, 0.4192277068788759, 0.4243637728827446, 0.4316124128621758]</t>
+  </si>
+  <si>
+    <t>[27.09500689234684, 27.095025089386677, 27.095016949804467, 27.09497186339129, 27.094940057244866, 27.094981937383363, 27.094975514799902, 27.094894322332788, 27.094856120002888, 27.094839257512504, 27.094837298500966, 14.779295588394517]</t>
+  </si>
+  <si>
+    <t>[0.6084859040733133, 0.6084863712599904, 0.6084865124862683, 0.6084862132420804, 0.608485897703807, 0.6084861112810224, 0.6084860132830533, 0.6084853268753022, 0.6084849393826085, 0.6084846946605437, 0.6084845694451176, 0.7654651173368525]</t>
+  </si>
+  <si>
+    <t>[27.09492836364161, 27.09495277686531, 27.094914209375293, 27.09488227877985, 27.09486483711503, 27.094925798958275, 27.09488271118952, 27.094837398364945, 27.094801063034556, 27.094793444468248, 14.77926952346366]</t>
+  </si>
+  <si>
+    <t>[0.6084845237703611, 0.6084852860201536, 0.608485090139794, 0.6084848558305712, 0.6084846772111069, 0.608485134329246, 0.6084848068176918, 0.6084844215415117, 0.6084840633695434, 0.6084839237255532, 0.7654642687076286]</t>
+  </si>
+  <si>
+    <t>[39.44429085486888, 39.444288135602044, 39.44429288630158, 39.444299408914524, 39.444305173895344, 39.444310052872595, 39.4443166476419, 39.44431612509305, 39.444313322744506]</t>
+  </si>
+  <si>
+    <t>[0.45223463690183474, 0.45223476036890803, 0.452234715943345, 0.4522345290565606, 0.45223436928259997, 0.45223417995383813, 0.4522339690713951, 0.4522338058655654, 0.4522337905687797]</t>
+  </si>
+  <si>
+    <t>[27.09490970520303, 27.094977762995295, 27.094964614829696, 27.0949486075764, 27.095007031580764, 27.094938078764287, 27.094883719719057, 27.094849446718115, 27.09482248035909, 27.094810729482905, 27.094807449636754, 27.094816661582126, 14.779290559954646]</t>
+  </si>
+  <si>
+    <t>[0.6084841242740703, 0.6084854638515396, 0.6084856134241147, 0.6084856394216563, 0.6084861562094115, 0.6084857359982125, 0.6084853356148042, 0.608485041685774, 0.6084847461779306, 0.6084845656233222, 0.6084844033382873, 0.608484366955688, 0.765465210927622]</t>
+  </si>
+  <si>
+    <t>[27.09484384768592, 27.09490352151673, 27.094901372916983, 27.094888191330057, 27.094910975453878, 27.094932541360166, 27.094879828882114, 27.094837955915203, 27.094791796211272, 27.094775312195004, 27.09476575448055, 27.094770082700656, 27.094783981776942]</t>
+  </si>
+  <si>
+    <t>[0.608482777348088, 0.6084840657752125, 0.6084843523849884, 0.6084844693676718, 0.60848481249265, 0.608485105406278, 0.6084848040734071, 0.6084845204673192, 0.6084841532810659, 0.6084839836140992, 0.6084838200152176, 0.6084837672242176, 0.6084838219464765]</t>
+  </si>
+  <si>
+    <t>[27.094835907022595, 27.094894754602844, 27.09496414941407, 27.094962209338572, 27.094967856867584, 27.094963148821456, 27.094908829676015, 27.094879060340187, 27.09484587159523, 27.09483002412121, 27.094826596643042, 27.0948326530384, 96.15023530556589, 99.29021855181708]</t>
+  </si>
+  <si>
+    <t>[0.6084807865371755, 0.608482387891551, 0.6084840916926281, 0.6084844770066729, 0.6084848098806772, 0.6084850061005117, 0.6084847276675979, 0.6084845518215567, 0.6084842882625049, 0.6084840954566018, 0.6084839743898744, 0.6084839308811477, 0.4799068119866374, 0.6271589249253444]</t>
+  </si>
+  <si>
+    <t>[19.146676876740266, 19.14668277392301, 19.146662224640917, 19.146689332710693, 19.146651276670852, 19.146600030025947, 19.146555406332407, 19.14653868034871, 19.146528871476637, 19.146531550968255, 9.751813460134288]</t>
+  </si>
+  <si>
+    <t>[0.5509510346046261, 0.5509515080674595, 0.5509514813896349, 0.550951815633524, 0.5509516982021426, 0.5509514145491794, 0.5509511466329421, 0.550951027125765, 0.5509509480120511, 0.5509509892431241, 0.6505932668286558]</t>
+  </si>
+  <si>
+    <t>[19.14662263483523, 19.146635529811903, 19.1466202941374, 19.146615060085875, 19.146646583800205, 19.146600988052533, 19.146562616719752, 19.146523635038413, 19.14650730327803, 19.146500885049157, 9.751797385973036]</t>
+  </si>
+  <si>
+    <t>[0.5509498144888589, 0.5509504214482156, 0.5509504862462036, 0.5509506231309251, 0.5509510691622551, 0.5509509076798333, 0.5509507314651865, 0.5509505483894386, 0.5509504983658384, 0.5509504895878539, 0.6505928473235169]</t>
+  </si>
+  <si>
+    <t>[61.796664859805645, 61.796634401578636, 58.8623083182372, 58.86229831117653, 58.86227647468588, 58.86226436278427, 58.86227736385002, 140.26676561773596, 140.26582130736307, 140.2657091609437]</t>
+  </si>
+  <si>
+    <t>[0.48364609042085066, 0.48364603913920307, 0.4751129450889767, 0.4751129827620667, 0.47511289162103365, 0.4751128245170424, 0.4751127987730024, 0.48691336663844176, 0.4869096133412656, 0.4869091037292893]</t>
+  </si>
+  <si>
+    <t>[26.094889440457635, 27.095443360191066, 27.04926684717473, 27.049260470394948, 27.04938476883502, 27.049455071552508, 27.049509622780217, 27.049157853623505, 27.04895404256661, 27.048866589121747, 99.29009136208477]</t>
+  </si>
+  <si>
+    <t>[0.6104812824304587, 0.6084852746493362, 0.609429282326825, 0.6094276826031756, 0.609431100314583, 0.6094313294344375, 0.6094309928310052, 0.6094299840451105, 0.609428402939308, 0.6094273872529928, 0.6271585154649268]</t>
+  </si>
+  <si>
+    <t>[76.95510087781632, 76.95505450168368, 72.919003716975, 72.91900991575123, 72.91900216388773, 72.9189912738862, 137.7661643836216, 140.79521945722743, 140.79474485441682]</t>
+  </si>
+  <si>
+    <t>[0.46907421489323264, 0.469074405982499, 0.46917712681413026, 0.46917727654286084, 0.46917744539563944, 0.4691775444807096, 0.4826619371236508, 0.4852516994868133, 0.4852500498279912]</t>
+  </si>
+  <si>
+    <t>[31.9997422999968, 31.999806168095315, 31.999891472108622, 32.99277864387989, 32.9928622935661, 32.992932837315855, 32.993063313083276, 32.99273402469132, 91.27900509969908, 91.27909490885331, 91.2791832034101, 73.74685150884396]</t>
+  </si>
+  <si>
+    <t>[0.6022861001793408, 0.6022878511045279, 0.6022896322452703, 0.6056775820953056, 0.6056785681306761, 0.6056790153985118, 0.6056791489936648, 0.6056787850097206, 0.4769124197745282, 0.4769123602714255, 0.4769122838289436, 0.5904370869673361]</t>
+  </si>
+  <si>
+    <t>[19.147014849839607, 19.11678497285588, 19.116820357779456, 19.116855423231065, 19.116908185642473, 19.11695223921452, 19.11702895265627, 19.11681534271839, 93.13967797305722, 93.13980085242909, 77.19682970109383]</t>
+  </si>
+  <si>
+    <t>[0.5509527615727576, 0.5518347399402548, 0.5518358316212716, 0.5518364988949114, 0.5518369993316713, 0.5518371060924251, 0.5518368377964863, 0.5518368198396878, 0.4400750552531237, 0.44007529247942956, 0.5123502194415825]</t>
+  </si>
+  <si>
+    <t>[31.67033765181504, 31.67032881572176, 30.144263538878516, 30.144267511707326, 30.144265145798403, 30.14426333889333, 30.144260678087967, 30.14425932647692, 30.144258462406512, 39.10352662200849, 66.34243253401036, 67.86461138705543, 67.86460874210283]</t>
+  </si>
+  <si>
+    <t>[0.24892327430965416, 0.24892326291140043, 0.2458721654264402, 0.2458721953764059, 0.24587219115484915, 0.2458721861690972, 0.24587217519062401, 0.24587216726752853, 0.24587215465214513, 0.2631171663934782, 0.29532495717475166, 0.2967813967706574, 0.2967813866373714]</t>
+  </si>
+  <si>
+    <t>[26.04803142999239, 26.048076899226192, 26.048117849086612, 27.049323089324997, 27.04938840322874, 27.049444004513667, 27.049539631821187, 27.049329477389655, 27.049026354203118, 27.048912699692572, 96.14988560713154, 99.28987213472189]</t>
+  </si>
+  <si>
+    <t>[0.6114183375230726, 0.6114200477383386, 0.6114211956544268, 0.609430530453629, 0.6094314121693729, 0.6094316830240604, 0.6094314528705284, 0.6094309482835599, 0.6094296301480416, 0.6094286236970131, 0.479906772775136, 0.6271578063648683]</t>
+  </si>
+  <si>
+    <t>[26.09486124005021, 27.095408472022843, 27.095488871179874, 27.095474248202326, 27.095528434188545, 27.095632561037988, 27.095717042821285, 27.04922873265366, 27.048960677177618, 27.04885560637341, 96.149863591965, 96.14989649804605]</t>
+  </si>
+  <si>
+    <t>[0.6104818638261215, 0.6084858183154773, 0.6084896143023637, 0.6084880364412082, 0.6084888375419386, 0.6084915374455631, 0.608491316292131, 0.6094306165253013, 0.6094292840414951, 0.6094283379268205, 0.4799067258930548, 0.47990675754632944]</t>
+  </si>
+  <si>
+    <t>[41.89160284875719, 41.89158096184987, 41.89156710008636, 39.91060502191662, 39.91062205832913, 39.91068241457154, 39.910726963034215, 39.91075972963437, 39.91078550531042, 39.91080617243037, 39.91083939362574, 39.91086830737109, 39.91090158007489, 68.79186229202844]</t>
+  </si>
+  <si>
+    <t>[0.4089491968220649, 0.408949111395962, 0.4089490393686893, 0.3972692022898594, 0.3972693058612294, 0.39726972601662064, 0.39726996895740896, 0.39727012723864846, 0.3972702432396392, 0.39727032919175437, 0.39727045302018404, 0.3972705460982682, 0.39727064078063434, 0.5087975734971808]</t>
+  </si>
+  <si>
+    <t>[22.14569090266503, 22.145682382324694, 21.40049884154406, 21.400495547774494, 21.400497935550323, 21.400504639016386, 21.40051359951035, 21.40052266008825, 21.400530887265457, 21.400537816634145, 21.400549294505375, 57.67441678130066, 57.67442797400913, 57.67441043179526, 122.3992163714003]</t>
+  </si>
+  <si>
+    <t>[0.2958408155080211, 0.29584079571452576, 0.29169659114604146, 0.2916965523152334, 0.29169654882913, 0.2916965377776785, 0.2916965221070758, 0.29169650479466314, 0.29169648766891393, 0.29169646928882703, 0.29169642908071763, 0.4485743168749272, 0.44857405037498127, 0.4485738999398479, 0.5331748801986176]</t>
+  </si>
+  <si>
+    <t>[31.999773472399674, 31.999839386508466, 31.999929435947035, 32.00001807426089, 32.000076857319286, 32.992917985303684, 32.99301328475841, 32.99301027844145, 91.27873602456567, 91.27884904365908, 102.36962553911762, 102.36972261082632, 79.23899920802177]</t>
+  </si>
+  <si>
+    <t>[0.6022870170845551, 0.6022887570472023, 0.6022905451009021, 0.6022917781161913, 0.6022923626383629, 0.6056793340881695, 0.6056795933079554, 0.6056793865148471, 0.4769121323526589, 0.47691216758995786, 0.4901889738569413, 0.49018886393246647, 0.6177937448071567]</t>
+  </si>
+  <si>
+    <t>[32.058324677002034, 32.05839930126547, 32.99267973510175, 33.050295697468506, 32.992824124169225, 32.992923273463774, 32.99283282620391, 32.99241683004871, 91.27885240122018, 91.27895491920854, 91.27900859080805]</t>
+  </si>
+  <si>
+    <t>[0.6015934743669767, 0.6015955898834875, 0.6056774119887673, 0.6049558037491277, 0.6056792563565238, 0.605679518524628, 0.6056792606046629, 0.605678058219903, 0.476912139099356, 0.47691209751127106, 0.47691210198477285]</t>
+  </si>
+  <si>
+    <t>[32.058321530673815, 31.999780593384926, 31.99986551421839, 31.999941473963066, 32.99283046784398, 32.99291335508053, 32.99307168466471, 32.992566033803016, 91.27892280817599, 102.36974370712058, 102.36981367421089, 79.23906938566995]</t>
+  </si>
+  <si>
+    <t>[0.601592085149094, 0.6022875726579398, 0.6022893422448131, 0.6022905276890055, 0.6056783216348642, 0.6056788653508957, 0.6056789633748657, 0.6056782198610648, 0.47691212701745334, 0.4901889200897231, 0.4901888269270292, 0.6177939544546767]</t>
+  </si>
+  <si>
+    <t>[19.146990592009203, 19.14701741132283, 19.147050783159003, 19.116831569555483, 19.116891140027917, 19.116952059446543, 19.116883295888112, 93.13940741289014, 93.13954652353725, 93.1396501850499, 77.1966503605539]</t>
+  </si>
+  <si>
+    <t>[0.5509531769787177, 0.5509545661804002, 0.5509555486060844, 0.551836945389817, 0.5518372688859421, 0.5518371106939358, 0.5518368745083079, 0.4400744715396263, 0.44007481058239867, 0.4400750088659148, 0.5123496003180631]</t>
+  </si>
+  <si>
+    <t>[20.195073658678258, 20.195096468801257, 20.19510402780708, 20.195113617605564, 20.195128556431616, 20.19514694851092, 20.195163064548957, 20.195181165710537, 20.19520139823364, 20.195204805842152]</t>
+  </si>
+  <si>
+    <t>[0.7088145924271374, 0.7088171541167386, 0.708819138471779, 0.7088204616443156, 0.7088213562761322, 0.7088221589983654, 0.7088227384535538, 0.708823247884291, 0.7088236871052584, 0.7088237492949004]</t>
+  </si>
+  <si>
+    <t>[29.203901349461155, 29.203881281318903, 29.20385714488697, 29.203824878386875, 29.203805410383964, 29.203782071944126, 29.20375516349242, 29.203722191018862, 29.203675137446314, 29.3614485806716, 27.11242362143821, 27.11233573929561]</t>
+  </si>
+  <si>
+    <t>[0.2781071742828165, 0.27810718444668, 0.27810717768834736, 0.2781071456443284, 0.27810711620225004, 0.27810707427204606, 0.2781070156884995, 0.2781069301170864, 0.27810678436037034, 0.278327334787725, 0.2752506188292642, 0.2752499677773425]</t>
+  </si>
+  <si>
+    <t>[23.239272139774275, 23.23928835099978, 18.28911742014028, 18.28913192742147, 18.289146294090923, 18.289160041317988, 18.289183352364468, 18.289200942450055, 18.289222464517863, 18.289245369590287, 18.28926692657887, 26.99890068827941]</t>
+  </si>
+  <si>
+    <t>[0.6750038511103776, 0.6750066444431027, 0.6250112035738346, 0.6250121705488729, 0.6250129538494896, 0.6250135612300051, 0.6250143691415269, 0.6250148390121009, 0.625015291978988, 0.6250156433751543, 0.6250158743524967, 0.3269785725062948]</t>
+  </si>
+  <si>
+    <t>[32.71697410710975, 29.017815291334465, 29.017899346864105, 29.017899346892545]</t>
+  </si>
+  <si>
+    <t>[0.29086477148185014, 0.31432201535373167, 0.3143221236762519, 0.3143221236763399]</t>
+  </si>
+  <si>
+    <t>[30.858400153109475, 30.858380793868633, 30.85835750416222, 30.858326660359666, 30.573938186847688, 30.57391193972708, 30.573879802552437, 30.573832487877716, 30.565996416969185, 27.403373234642405, 27.11254519157826]</t>
+  </si>
+  <si>
+    <t>[0.30096124412615083, 0.30096125028528664, 0.30096124157853493, 0.30096120522371034, 0.333614597311038, 0.33361448442072805, 0.3336143248349765, 0.3336140511723857, 0.33332487660500276, 0.2752400481892761, 0.2752506323241886]</t>
+  </si>
+  <si>
+    <t>[19.14104247465401, 19.14104780361802, 19.14105355185853, 19.14105912785783, 19.14106478601987, 19.14107085103986, 19.14107250132621]</t>
+  </si>
+  <si>
+    <t>[0.23633155883497378, 0.23633162299202895, 0.23633168791473583, 0.23633174700764548, 0.2363318032862693, 0.23633185974566973, 0.2363318744600321]</t>
+  </si>
+  <si>
+    <t>[20.195084496491038, 20.195116683271912, 20.195125824704014, 20.195135217604623, 20.195145280047523, 20.19515670348901, 20.195166274335918, 20.195183759447694, 20.195205943086673, 20.19521372651341]</t>
+  </si>
+  <si>
+    <t>[0.7088177782962108, 0.7088202052444977, 0.7088212098400083, 0.7088226284125798, 0.7088235117949456, 0.7088242390013446, 0.7088246793465196, 0.7088251246019354, 0.7088255485411381, 0.7088256672944341]</t>
+  </si>
+  <si>
+    <t>[20.195049653746324, 20.195090110823454, 20.195107232754996, 20.195116274270312, 20.195124648203667, 20.19513464807213, 20.19514428659706, 20.195156822692738, 20.19517667725932, 20.195180064369993]</t>
+  </si>
+  <si>
+    <t>[0.7088157099799381, 0.7088182552139944, 0.7088202982390049, 0.7088216358407883, 0.7088224854096399, 0.7088232313837458, 0.7088237835960464, 0.7088242799518687, 0.708824773553824, 0.7088248460168439]</t>
+  </si>
+  <si>
+    <t>[19.141034847045994, 19.141037595754497, 19.141040506788798, 19.14104333472787, 42.50352238793947, 42.503521798654056, 42.50352178139891]</t>
+  </si>
+  <si>
+    <t>[0.2363315058553336, 0.23633155751693616, 0.23633160851167417, 0.23633165417606664, 0.49109052157552396, 0.491090837301705, 0.49109090064921734]</t>
+  </si>
+  <si>
+    <t>[30.84341236979459, 30.843298732395567, 31.036781635266237, 44.94844020189815, 28.63016812808314, 28.63021616311494, 23.239312948293605, 23.23938965453293, 18.289246577919982, 18.28929578651178, 26.998844284515332, 26.99884354720984, 26.99884574907389, 26.16222228851752, 22.984353456082985, 22.98436465597111, 22.98437713093884, 22.984394201740177, 27.62770234711234]</t>
+  </si>
+  <si>
+    <t>[0.30102402542376144, 0.30102382010432027, 0.30096538918789373, 0.7032846353479789, 0.6980781621018761, 0.698083405478232, 0.675009368760181, 0.6750144543625186, 0.6250167546322474, 0.6250170913950187, 0.32697826009688574, 0.32697819574797593, 0.32697814217525145, 0.3237301316711004, 0.31126351517329187, 0.31126349112106766, 0.3112634678603167, 0.31126339317911217, 0.2832681379420838]</t>
+  </si>
+  <si>
+    <t>[30.843418015962726, 30.843366175245503, 30.843322262085383, 31.0367963611984, 44.94848818450009, 44.948493687384286, 28.63023001871999, 23.239269946268042, 23.23934458100049, 18.28921207363679, 18.28926663616232, 18.289309375186512, 26.99884472583008, 26.998848010039133, 26.99885502235661, 26.162238059213205, 26.16225261921645, 22.984395302235068, 22.98440985039655]</t>
+  </si>
+  <si>
+    <t>[0.30102401524551026, 0.3010239952467938, 0.30102388124171353, 0.3009653769663697, 0.7032829913542018, 0.7032871596295407, 0.6980806693443363, 0.6750048086122634, 0.6750125795980499, 0.6250162238029106, 0.6250167995953193, 0.6250168505792968, 0.32697821462641247, 0.32697817119247674, 0.3269781458465032, 0.32373016107359315, 0.3237301633642462, 0.3112634378858672, 0.3112633336025138]</t>
+  </si>
+  <si>
+    <t>[7.895633486383658, 7.895638430136865, 7.8956449258400605, 7.89565129294778, 7.895656667618061, 6.200355442993111, 6.200360975307243, 6.200366990125828, 6.200373603482453, 6.200374600514204]</t>
+  </si>
+  <si>
+    <t>[0.5738133095805609, 0.5738149223382466, 0.5738163320823305, 0.5738172826924729, 0.573817869812101, 0.541828384709118, 0.5418286718846635, 0.541828906844327, 0.5418291004889946, 0.5418291268677168]</t>
+  </si>
+  <si>
+    <t>[7.895628124037811, 7.895631833648984, 7.895637512972609, 7.895643215585046, 7.895648145801967, 7.8956534918136985, 6.200352441372688, 6.200358188347979, 6.200364685676781, 6.200365719005526]</t>
+  </si>
+  <si>
+    <t>[0.5738123068233588, 0.5738138976789436, 0.5738154192512981, 0.5738165152928517, 0.5738172193547261, 0.5738178326571955, 0.541828323623254, 0.5418286285288733, 0.5418288871432143, 0.5418289234871044]</t>
+  </si>
+  <si>
+    <t>[27.094993246096095, 27.09501338710124, 27.09504058917906, 27.095026282665703, 27.094987757576042, 27.094972760477646, 27.09500347823286, 27.094973054695735, 27.094912937750852, 27.094882961451127, 96.15039148548713, 99.2904003842151, 99.29040060423176]</t>
+  </si>
+  <si>
+    <t>[0.6084846969177012, 0.608485467008689, 0.6084861333870208, 0.6084862780979131, 0.6084859788736218, 0.6084857069249784, 0.6084857479516892, 0.6084854450225037, 0.6084848434193623, 0.6084844245733748, 0.47990723934933494, 0.6271595117238874, 0.627159514126168]</t>
+  </si>
+  <si>
+    <t>[110.11585966864075, 110.11574605216076, 110.11560971560002, 110.11546546011861, 110.11539146795624, 110.11531510348183, 110.11523577707722, 110.11515437983358, 110.11506569883998, 7.921669684629008, 7.188772738275876, 7.074223211101156]</t>
+  </si>
+  <si>
+    <t>[0.4788561165436794, 0.4788562570248962, 0.4788563750078296, 0.4788564567238074, 0.478856481648018, 0.47885649082841225, 0.4788564796687821, 0.47885644469862726, 0.47885636994585523, 0.4891655850595005, 0.5121850162670926, 0.5133545455031399]</t>
+  </si>
+  <si>
+    <t>[27.094920884660187, 27.09494494152361, 27.094975461838175, 27.095005438730105, 27.09497968521415, 27.094967639859917, 27.094981812940183, 27.094916699619944, 27.094885323796635, 27.094852350704947, 27.094832265122765, 96.15029441946882, 96.15031947594173, 99.29031441163563]</t>
+  </si>
+  <si>
+    <t>[0.6084836262630687, 0.6084843828130269, 0.6084851085459796, 0.6084857364567151, 0.6084857153044125, 0.6084856193229057, 0.6084856654398384, 0.608485146033653, 0.6084848218523068, 0.6084843868465196, 0.6084839841176422, 0.47990692869216683, 0.479906952841442, 0.6271591439804253]</t>
+  </si>
+  <si>
+    <t>[19.146666072237362, 19.14667777523237, 19.146692257140444, 19.146696960786176, 19.146677360859215, 19.14668541932041, 19.146642843470605, 19.14661276177057, 19.14657553543088, 93.14010280772317, 93.14013375828324, 96.96881079672829, 96.96881426534435]</t>
+  </si>
+  <si>
+    <t>[0.5509504689464076, 0.5509510171996971, 0.5509514740992798, 0.5509517051064879, 0.5509516453188904, 0.550951744279824, 0.5509515253716577, 0.5509513344385427, 0.5509510215245992, 0.44007556197266473, 0.44007564183151365, 0.5468749470026718, 0.5468749686142033]</t>
+  </si>
+  <si>
+    <t>[91.87845834222765, 91.8783777935514, 91.87828311285466, 91.87818473212435, 91.87813448131458, 91.87808176364993, 91.8780259765194, 91.8779675083474, 91.87789087223437, 2.089924464784955, 3.3236919590006306, 3.3237237042744985, 3.295154147267914]</t>
+  </si>
+  <si>
+    <t>[0.39729292797593585, 0.39729299641310467, 0.39729304396891946, 0.3972930579740692, 0.39729304614285854, 0.3972930152168388, 0.39729295749266286, 0.39729286372172085, 0.3972927109839414, 0.45367447320227894, 0.4243633551816894, 0.4243634205691054, 0.4316128027936437]</t>
+  </si>
+  <si>
+    <t>[57.186765931444874, 41.89140837404658, 41.89147270081089, 46.03141778835009, 46.03144771655517, 46.03148502294397, 48.18175051343118, 48.1817880946398, 48.18180239737151]</t>
+  </si>
+  <si>
+    <t>[0.47960039419601064, 0.408947826745088, 0.40894837371183645, 0.43160929911879853, 0.43160941423907956, 0.4316095458018177, 0.44238583608283333, 0.4423859674908992, 0.4423860027619002]</t>
+  </si>
+  <si>
+    <t>[27.095023151231096, 27.09504146519615, 27.095067200813574, 27.095009994267674, 27.094965701067938, 14.77935843539535, 27.095029123730818, 27.094961659622975, 27.094904000799026, 27.09487794679216, 27.094875805781005, 14.77931419664295]</t>
+  </si>
+  <si>
+    <t>[0.6084861780048925, 0.6084869402670698, 0.6084875418408517, 0.6084872660351055, 0.6084868334826187, 0.765467946386319, 0.6084868908663142, 0.6084862766958165, 0.6084856806287026, 0.6084852869831667, 0.6084851023906003, 0.7654655383308493]</t>
+  </si>
+  <si>
+    <t>[27.094953841346097, 27.094966930285537, 27.094985261688304, 27.094958394470858, 27.094911471023057, 27.094886594677664, 14.779327955749853, 27.094962615495305, 27.09492040219475, 27.09486902554956, 27.094833439919775, 27.09483190308731, 14.779288501545002]</t>
+  </si>
+  <si>
+    <t>[0.6084850723204659, 0.6084857048003592, 0.6084862549616795, 0.6084862740233892, 0.6084859151457787, 0.6084856061937546, 0.7654664162032816, 0.6084859258963807, 0.608485532010509, 0.6084850332083221, 0.6084845993998195, 0.6084844655438081, 0.7654646874847334]</t>
+  </si>
+  <si>
+    <t>[81.69393461938527, 43.93306111912953, 43.93305514506879, 48.18162337081273, 48.18166691347945, 48.181721527323354, 48.18176827136692, 48.181812823107634, 48.18181609383713]</t>
+  </si>
+  <si>
+    <t>[0.522254498150202, 0.42042894500935907, 0.42042890236896824, 0.44238485134735167, 0.4423851739614685, 0.44238555903584437, 0.442385870223766, 0.44238615614184196, 0.4423861815933782]</t>
+  </si>
+  <si>
+    <t>[41.24154057122946, 41.24151463267792, 41.24148298009112, 44.61966180845202, 44.6196696131767, 44.619678415941415, 44.61968717877773, 44.619688173946685]</t>
+  </si>
+  <si>
+    <t>[0.46682820120476687, 0.4668287757362213, 0.46682933813051175, 0.49591962921144966, 0.49591941124755534, 0.49591918299898247, 0.49591894129639374, 0.49591892302974605]</t>
+  </si>
+  <si>
+    <t>[27.094944466936422, 27.094967597841045, 27.09499797438526, 27.094992328808118, 27.094958043962613, 27.094971010773236, 27.094992510838786, 27.09493051780257, 27.094865396589302, 27.094846402067613, 27.094834276810364, 27.094834563610547, 14.77930006377754, 14.779300190858091]</t>
+  </si>
+  <si>
+    <t>[0.6084851896099478, 0.608485924205293, 0.6084865965943776, 0.6084868421037959, 0.6084866556576298, 0.6084866631259005, 0.6084867309784925, 0.6084862426287543, 0.6084856000685815, 0.6084853131125283, 0.6084850186918154, 0.6084848331177742, 0.765465538547616, 0.7654655258799775]</t>
+  </si>
+  <si>
+    <t>[27.09488223998269, 27.09492239137816, 27.094937820563345, 27.094904612482484, 27.094883204583, 27.094933180233756, 27.094930382981442, 27.09488248367948, 27.094827261638695, 27.094798129292556, 27.09479020926367, 27.094794642559673]</t>
+  </si>
+  <si>
+    <t>[0.6084841003260542, 0.6084853021257529, 0.6084857662561729, 0.6084856614069913, 0.6084855145185156, 0.6084858442354654, 0.6084858047158389, 0.6084854317853355, 0.6084849203924236, 0.6084845343878253, 0.608484301814285, 0.6084841538449969]</t>
+  </si>
+  <si>
+    <t>[9.92408296742936, 15.051331906810757, 15.051331906810757]</t>
+  </si>
+  <si>
+    <t>[0.5646554476509023, 0.6294081746759594, 0.6294081746759594]</t>
+  </si>
+  <si>
+    <t>[19.146684126873808, 19.146693727562425, 19.14670346471767, 19.14668488831505, 19.14666168835134, 19.146707501008994, 19.1466537836265, 19.146610269838128, 19.146576695536485, 19.146559464796788, 19.14655137649145, 9.75182090589138, 96.96863043010893]</t>
+  </si>
+  <si>
+    <t>[0.5509517340045255, 0.5509522401655078, 0.5509525662348096, 0.5509525187136575, 0.5509523409049247, 0.5509526444232998, 0.5509523212478304, 0.5509520039867493, 0.5509517060578814, 0.5509515035576708, 0.5509513643595485, 0.6505934215006479, 0.546874571070743]</t>
+  </si>
+  <si>
+    <t>[19.14663545039951, 19.146642753782753, 19.146651226763378, 19.1466471446681, 19.14662324919043, 19.14661388249269, 19.146656213784677, 19.14661165906222, 19.146553406306694, 19.14653506845217, 19.146524540076996, 19.146522097552715, 9.751805428683776]</t>
+  </si>
+  <si>
+    <t>[0.5509507008739434, 0.5509511533291181, 0.5509515139471474, 0.5509516480848715, 0.550951533183551, 0.5509514975995908, 0.5509518802269027, 0.5509516255234852, 0.5509512085560028, 0.5509510541569366, 0.5509509375294375, 0.5509508907112651, 0.6505929815945812]</t>
+  </si>
+  <si>
+    <t>[68.46532451306662, 40.42865967425959, 40.428704694726804, 40.42872595417848]</t>
+  </si>
+  <si>
+    <t>[0.45087292623088304, 0.31365576134108236, 0.3136553954423565, 0.3136551748795773]</t>
+  </si>
+  <si>
+    <t>[7.4504145946133535, 7.4502661289792504, 7.4502554073369165, 7.4502621933675215, 7.450273821015328, 7.45028210890115, 7.4502845133547, 18.862138168824124, 18.862202679029135]</t>
+  </si>
+  <si>
+    <t>[0.5188135583132036, 0.5188158694320231, 0.5188171438147361, 0.5188164637826161, 0.5188156277391608, 0.518814820038877, 0.5188141878881266, 0.24005772100781148, 0.24005741851547358]</t>
+  </si>
+  <si>
+    <t>[10.59002550423657, 10.589817429709381, 10.589670225649895, 10.589659658746804, 10.589667209742318, 10.589679374634809, 10.589688480927673, 20.047654818529246, 20.047656923936476, 20.047644928451408]</t>
+  </si>
+  <si>
+    <t>[0.5064655578505713, 0.5064746878341843, 0.5064770347515201, 0.5064768213541829, 0.5064763296049475, 0.5064757010428232, 0.506475072346619, 0.24353615165779674, 0.24353611737337394, 0.24353612318606485]</t>
+  </si>
+  <si>
+    <t>[4.375048545779819, 4.375036434417201, 4.375032690496905, 4.375032624231961, 4.375033315822078, 2.8517853508641546, 18.561381996684883, 18.561381519744057]</t>
+  </si>
+  <si>
+    <t>[0.47804276618996866, 0.47804240240519386, 0.4780418384559587, 0.4780411968905214, 0.4780405536786714, 0.46474335105531134, 0.23021442599271405, 0.2302144171109496]</t>
+  </si>
+  <si>
+    <t>[40.428839544141, 40.42892046070319, 40.42893254010515]</t>
+  </si>
+  <si>
+    <t>[0.31365624427937533, 0.31365572868377317, 0.313655408368817]</t>
+  </si>
+  <si>
+    <t>[78.2043837531135, 78.2028325771577, 126.65215005758762, 126.65208761043564, 126.65202398834467, 27.22482379943272, 27.224837973323268]</t>
+  </si>
+  <si>
+    <t>[0.40788609165419676, 0.4078928764146775, 0.5901431203419496, 0.5901424133682533, 0.5901413566676168, 0.33768441885125167, 0.3376844031832015]</t>
+  </si>
+  <si>
+    <t>[7.450521170424532, 7.450321657827972, 7.45026410116907, 7.4502558594924855, 7.450265116611975, 7.450275427139348, 7.450280949371145, 4.657099909343923, 18.862179998415577, 18.862180426009697]</t>
+  </si>
+  <si>
+    <t>[0.5188076372304223, 0.5188146303660316, 0.5188174376468595, 0.5188172659451834, 0.5188165084940912, 0.5188156623461051, 0.518814927259011, 0.4908811379286674, 0.2400575125370455, 0.24005750572222093]</t>
+  </si>
+  <si>
+    <t>[15.457328014245498, 15.457110043225535, 36.60644415647362, 37.86890001858016, 37.86888815414433, 37.868870304308416, 48.31683413681095, 48.31687893265097, 46.97075193272754]</t>
+  </si>
+  <si>
+    <t>[0.6053716630354347, 0.6053837577224682, 0.7073639093056434, 0.6920319029831183, 0.6920303183332395, 0.6920283254170885, 0.46207723062112294, 0.46207745245981674, 0.46790429219743734]</t>
+  </si>
+  <si>
+    <t>[78.16759592452306, 78.16769971442754, 78.16719309104488, 137.68662136830127, 126.61776811828092, 126.61766492682484, 126.61749263804353, 126.61732128450731, 126.61703361724408, 126.61669482724699, 126.61629717929078, 126.61575839631827, 126.61539390609164]</t>
+  </si>
+  <si>
+    <t>[0.40800783706272375, 0.4080071729005557, 0.4080107149674666, 0.590763810241588, 0.5902539596947189, 0.5902535170528709, 0.5902527682856743, 0.5902520438981421, 0.5902509278427014, 0.5902496066804863, 0.5902479789422185, 0.5902456157912923, 0.5902438699192324]</t>
+  </si>
+  <si>
+    <t>[10.59004039884628, 10.589997562744133, 10.589707072408224, 10.589669825153024, 10.58966738824006, 10.589677698546447, 10.589689572011928, 10.589696609043857, 10.589695798987373, 20.047623752525176, 20.047623834186773]</t>
+  </si>
+  <si>
+    <t>[0.5064662925630199, 0.5064690094636678, 0.5064773898649685, 0.5064775181795379, 0.5064771509980609, 0.506476566796689, 0.5064758937361549, 0.5064752825474986, 0.5064744818126183, 0.24353608819002875, 0.24353607843025196]</t>
+  </si>
+  <si>
+    <t>[10.590013059368102, 10.58993661633812, 10.589689603542089, 10.589662155094164, 10.589659910709752, 10.589667218468312, 10.58967570425607, 10.58968035382449, 20.047634129187145, 20.047621895237018]</t>
+  </si>
+  <si>
+    <t>[0.5064672218639168, 0.5064712164225775, 0.5064773183406084, 0.5064773620483103, 0.5064770235087304, 0.5064765168902171, 0.5064759565300151, 0.5064750844375219, 0.24353612090766263, 0.243536125760624]</t>
+  </si>
+  <si>
+    <t>[10.590025654736609, 10.589930011501872, 10.589720388794907, 10.589699343532294, 10.589699940394663, 10.58970495390492, 10.58970677902717, 20.047654690095953, 20.04764321557027, 20.047643219255228]</t>
+  </si>
+  <si>
+    <t>[0.5064655826234442, 0.506471232273646, 0.5064765526737699, 0.5064764975174162, 0.5064760392530012, 0.5064754763645228, 0.5064749762544443, 0.2435361702858509, 0.24353616417056032, 0.24353616239771203]</t>
+  </si>
+  <si>
+    <t>[17.5122472386278, 17.5122472386278]</t>
+  </si>
+  <si>
+    <t>[0.24580988945573726, 0.24580988945573726]</t>
+  </si>
+  <si>
+    <t>[4.375186204692402, 4.3751062988015965, 4.375029951836674, 4.375006388648037, 2.8517551748168515, 2.851749355719879, 18.561301178521585, 18.561297488400896, 18.56129851090196, 18.56129870269883]</t>
+  </si>
+  <si>
+    <t>[0.4780370622511253, 0.47804149833485116, 0.47804238888473316, 0.47804113151803695, 0.4647424789341837, 0.4647418094034611, 0.23021438572422256, 0.2302143681679775, 0.23021434562663773, 0.2302143425132235]</t>
+  </si>
+  <si>
+    <t>[29.47721725346637, 29.477208626470976, 29.47719872779252, 29.47719119695315, 29.477183787588814, 29.47718384119307, 127.70372740384487, 130.04385632699243, 130.04346391364695, 130.04336517298276]</t>
+  </si>
+  <si>
+    <t>[0.4753260915568108, 0.47532637234625497, 0.4753267299703717, 0.4753270930396901, 0.475327730773863, 0.4753284718628629, 0.48648685500148947, 0.48885049977436784, 0.48884803459385934, 0.4888473149255975]</t>
+  </si>
+  <si>
+    <t>[28.440915825342543, 31.14342620232236, 29.831460785420617, 29.831483569969087, 15.416892466183002, 15.416923400697177, 15.416949876122917, 15.416976280056574, 15.41699150911422, 15.417038950107736, 15.417073608867273, 15.417116991737075, 10.687592671697194, 10.687627733256083, 3.911792391871806, 20.521497930227035]</t>
+  </si>
+  <si>
+    <t>[0.6872083206534658, 0.6816865325448976, 0.6855550511024382, 0.6855546124784446, 0.6511060540455622, 0.6511062419605803, 0.65110675085562, 0.6511072823428201, 0.6511092452529839, 0.651108564043767, 0.6511094131378996, 0.6511093141320772, 0.643675935550711, 0.6436750091359109, 0.599166780258899, 0.2637423154803097]</t>
+  </si>
+  <si>
+    <t>[23.95654730111008, 22.145735111378574, 22.145725165698394, 22.14571674932145, 22.14571225115434, 22.145708079578657, 40.45370352047084, 40.42870307924188, 40.428553711225106]</t>
+  </si>
+  <si>
+    <t>[0.3197252559041056, 0.29584044637080004, 0.29584049769867815, 0.29584056433805356, 0.29584062098348013, 0.29584070963399633, 0.3133407164457372, 0.31365565777682564, 0.3136545762543298]</t>
+  </si>
+  <si>
+    <t>[44.56550043540019, 44.56544963293879, 44.565379840139094, 44.56531756301895, 41.59298360494134, 41.59294241868845, 14.672703413611668, 14.672728795003026, 14.67274343294099, 14.67277839088072, 14.672797963230394, 14.672834881087528, 14.672868748497192, 14.672912031708808, 9.83413432340429, 3.341101209690956, 17.328741135192224, 17.328744418148016]</t>
+  </si>
+  <si>
+    <t>[0.707009778944175, 0.7070121051157339, 0.7070144179171121, 0.7070160833719197, 0.7164753235220166, 0.7164764371974524, 0.5635166503215367, 0.5635169334293254, 0.5635174996868164, 0.5635174379959781, 0.563517857430504, 0.5635178951593945, 0.5635179255701954, 0.5635177129346479, 0.575688999799321, 0.5620189871669428, 0.26125536344080635, 0.26125535738841055]</t>
+  </si>
+  <si>
+    <t>[18.93307333484098, 18.933043567164894, 18.91437005919102, 18.914330324812163, 17.153807421478884, 5.127422312406598, 5.127430666173142, 5.127437977651804, 5.127440380705343, 5.127452782109979, 5.1274614229950854, 5.127471099055073, 5.127481547630251, 3.3796756667186716, 3.3796849751234683, 1.1994928818093737, 1.1994972888374313, 18.12001541129191]</t>
+  </si>
+  <si>
+    <t>[0.5432303221687134, 0.543231452585408, 0.5438337201959509, 0.5438346288877601, 0.552447400288383, 0.4900297287712875, 0.490029963179755, 0.49003016065655414, 0.4900310900162515, 0.4900305536087157, 0.490030784003356, 0.49003105414407183, 0.4900313540196752, 0.5098815331045586, 0.5098812529669019, 0.5361571135444478, 0.5361563445986771, 0.24995645401961541]</t>
+  </si>
+  <si>
+    <t>[29.477259426234088, 29.477252536756456, 29.477244564891052, 29.47723777882481, 29.477234337340697, 29.477231683634827, 127.70378924507186, 127.70370387130146, 130.04436332704134]</t>
+  </si>
+  <si>
+    <t>[0.47532550992177863, 0.475325845069247, 0.47532629536152304, 0.47532679915096426, 0.4753271711406427, 0.47532768206298975, 0.4864852043083396, 0.4864839545050204, 0.4888499391143976]</t>
+  </si>
+  <si>
+    <t>[22.624767726672236, 22.624750111459836, 22.624755878585386, 44.74320979698627, 44.743389138821044, 44.743513012368716, 44.74359487226177, 44.74363902578916, 44.74366669186714, 41.854147846658016]</t>
+  </si>
+  <si>
+    <t>[0.4175906047155264, 0.4175906009936617, 0.41759169216075376, 0.4824682562939929, 0.48246779636854403, 0.4824664144081537, 0.48246437614526433, 0.48246226089386074, 0.48245974990024343, 0.48025497873938916]</t>
+  </si>
+  <si>
+    <t>[29.106625746651112, 31.14336336320344, 31.143387193851353, 31.143348987561026, 29.831370231744188, 29.831414365112597, 15.416917563299156, 15.416946830602361, 15.416976839760972, 15.416999268247341, 15.41703907137524, 15.417088109637481, 10.687569491815124, 3.91176791848681, 3.9117811040690196, 3.9117944178054525, 20.52147571568061]</t>
+  </si>
+  <si>
+    <t>[0.681684737148326, 0.6816779760326861, 0.6816859868565152, 0.681689103115913, 0.685557067395182, 0.68555633087065, 0.6511074381543507, 0.6511078909166857, 0.6511083642229477, 0.6511098864419077, 0.651110111670901, 0.6511100892631325, 0.6436769258014213, 0.5991684723944138, 0.5991679518475932, 0.5991671952124002, 0.26374229947250727]</t>
+  </si>
+  <si>
+    <t>[29.106530748711634, 28.440772997661334, 31.143310642590638, 28.441020508939825, 15.41686075962227, 15.416889375005258, 15.41691471325558, 15.416941867898766, 15.416959124413518, 15.416993162578171, 15.417038134041803]</t>
+  </si>
+  <si>
+    <t>[0.6816767235203031, 0.6872032096858341, 0.6816824799322921, 0.6872066884448838, 0.651106366274312, 0.6511067549765742, 0.6511072269838712, 0.6511077391026278, 0.6511092896840364, 0.6511096467036179, 0.6511096322131801]</t>
+  </si>
+  <si>
+    <t>[14.67283421092811, 14.67287576858385, 9.834108849361847, 3.3410936863712695, 3.3411036974363175, 17.3287249333162, 17.32872742143917]</t>
+  </si>
+  <si>
+    <t>[0.5635181861913872, 0.5635181564520216, 0.575689664708747, 0.5620197359991655, 0.5620193330932608, 0.2612553738025365, 0.26125536920343356]</t>
+  </si>
+  <si>
+    <t>[44.996382143588114, 44.56516779537895, 44.56518841167332, 44.51912179379553, 41.59290295487795, 41.592844772754965, 14.672681707926928, 14.67270667284629, 14.672764262444272, 14.672792899958141, 14.672827785886456, 14.672868362011046, 9.8341019206836, 3.341090333133889, 3.3410992422590966, 17.328721104363986]</t>
+  </si>
+  <si>
+    <t>[0.7021547201920617, 0.7070043656082068, 0.70701293376589, 0.7082142469954578, 0.7164765427852354, 0.7164775851334991, 0.5635170887633598, 0.5635174013365186, 0.5635178034861057, 0.5635180420154873, 0.5635181489181524, 0.5635181143263643, 0.5756896611494433, 0.5620197688257508, 0.5620194422052363, 0.2612553830804309]</t>
+  </si>
+  <si>
+    <t>[44.99661019280965, 44.56544760973383, 44.565391561774064, 44.565347469399995, 44.56528745289123, 41.59298727702796, 41.5929337605182, 14.672730463166497, 14.67276008830211, 14.672787471565286, 14.672822666558567, 14.672857130624536, 9.834090897458674, 9.834128818554824, 3.341094992315004, 3.3411041432284203, 17.32873041134412, 17.328731018576633]</t>
+  </si>
+  <si>
+    <t>[0.7021617447316014, 0.7070119866073038, 0.7070138391359834, 0.7070151041904066, 0.7070165204515384, 0.7164752007409786, 0.7164763893051418, 0.5635171354880828, 0.5635174062167242, 0.5635177744541082, 0.5635179019174494, 0.5635180378360813, 0.5756896832719435, 0.5756892615344144, 0.5620192608055998, 0.5620187973961471, 0.26125537140870053, 0.2612553703688833]</t>
+  </si>
+  <si>
+    <t>[19.409884748198344, 18.914369822467087, 18.914350219269718, 18.91432520434465, 17.153785708884193, 17.153762738201323, 5.12742847056191, 5.127433215366482, 5.127445282211661, 5.127454317432625, 5.127464540837451, 5.127475687232711, 3.379671670666675, 1.199487529663274, 1.1994913103979938, 1.199494453252538, 1.1994981869036763, 0.9189043994969559]</t>
+  </si>
+  <si>
+    <t>[0.5405340683295652, 0.5438305891142048, 0.5438337691659509, 0.5438351562918474, 0.5524481092929364, 0.552448309065621, 0.4900303260921315, 0.4900310244771017, 0.4900306453545561, 0.4900308199933688, 0.49003103659518343, 0.4900313213849298, 0.5098816768991727, 0.5361577858051884, 0.5361574782938128, 0.5361570847583679, 0.5361564225292905, 0.5321337441912913]</t>
+  </si>
+  <si>
+    <t>[19.40985484186518, 18.91433179920981, 17.153810681808682, 17.1537674490767, 5.127417352891768, 5.127424744598153, 5.127435231110544, 5.127443318805562, 5.127452029259474, 5.12746145083433, 5.12747157411278, 5.1274823868362, 3.3796780297862568, 1.199490131080567, 1.199493050171268, 1.1994963667036869, 1.1994966621651977]</t>
+  </si>
+  <si>
+    <t>[0.5405344047565512, 0.5438311501518782, 0.5524473612870857, 0.55244810196554, 0.4900304107362874, 0.4900307432034642, 0.49003053319376694, 0.4900307432436604, 0.49003097673080864, 0.4900312429578002, 0.490031528067241, 0.4900316439359211, 0.5098815900098189, 0.5361575530901393, 0.5361572225207776, 0.5361566950941858, 0.5361566344119644]</t>
+  </si>
+  <si>
+    <t>[16.81793541672893, 16.817638370134567, 16.81734257832017, 16.817179838686943, 16.817105994433962, 120.42204995404971, 120.64415643520525, 120.64416316432386]</t>
+  </si>
+  <si>
+    <t>[0.6009722505163521, 0.6009798374932086, 0.6009801682427185, 0.600978995095681, 0.600978014125783, 0.5386468484066607, 0.5884158020754395, 0.5884155471322071]</t>
+  </si>
+  <si>
+    <t>[20.885154019129665, 20.884812277200155, 20.884548116803494, 20.884402940975104, 117.9838850564784, 117.98389134869245, 117.98388888772907, 122.33826369084746, 122.33826051169073]</t>
+  </si>
+  <si>
+    <t>[0.5751471230941486, 0.5751513910965158, 0.575151134221017, 0.5751502312697679, 0.5312512053281851, 0.5312508027305326, 0.5312502937792813, 0.559994395822002, 0.5599942990789218]</t>
+  </si>
+  <si>
+    <t>[11.73753809041486, 11.737280879614453, 11.737122384730629, 11.73703439326357, 110.6348966582464, 110.63491400695342, 108.03836606555687, 108.62006144122354]</t>
+  </si>
+  <si>
+    <t>[0.5618047661666458, 0.5618079244634748, 0.5618068816880949, 0.561805514765452, 0.4937887169606273, 0.49378844498799646, 0.5267581488826331, 0.5304906728067367]</t>
+  </si>
+  <si>
+    <t>[130.04450560377512, 130.04407353724494, 57.39026184549271, 57.390322696229056, 57.39038549265408, 57.39044044561701, 57.39047563092288]</t>
+  </si>
+  <si>
+    <t>[0.4888510818246812, 0.488856098847994, 0.5552533898890193, 0.5552529273757812, 0.5552522829763853, 0.5552515842090974, 0.5552511178672584]</t>
+  </si>
+  <si>
+    <t>[16.81792289030391, 16.817557495799, 16.81725479120691, 16.817140937851917, 16.817085861234087, 119.98254711889139, 120.64396798321543, 120.64397606128358]</t>
+  </si>
+  <si>
+    <t>[0.600976703868208, 0.6009804231395353, 0.6009798858234208, 0.6009787967732577, 0.6009779981963778, 0.5834826660181873, 0.5884166991190591, 0.588416493699798]</t>
+  </si>
+  <si>
+    <t>[40.42899281675054, 128.63685064112377, 122.39961227393263, 122.39952224098481, 122.39927235705336, 122.39908825610968, 128.45914337756815]</t>
+  </si>
+  <si>
+    <t>[0.31365495010723643, 0.531074848043791, 0.5331713994166315, 0.5331707009198391, 0.5331695540911798, 0.5331685142427124, 0.6031420544450445]</t>
+  </si>
+  <si>
+    <t>[20.885285388123155, 20.88501648689349, 20.88470702440726, 20.884467582221205, 20.884356746359845, 117.98363486621558, 117.9836402240237, 122.33800149228239, 122.33799575552827]</t>
+  </si>
+  <si>
+    <t>[0.5751417331198482, 0.5751507559233228, 0.5751520225628597, 0.575151312534548, 0.575150465513054, 0.531250729591656, 0.5312501535210225, 0.5599942178971399, 0.5599940260459407]</t>
+  </si>
+  <si>
+    <t>[21.915120789326423, 21.865916212717796, 20.884996618874816, 20.88457430737715, 20.884306326787005, 20.88418221364988, 117.98358677801903, 117.9835553506691, 122.33787053976042, 122.33785586924974]</t>
+  </si>
+  <si>
+    <t>[0.5746695549016505, 0.5751911969644216, 0.5751470957870852, 0.5751514906926329, 0.5751504443691728, 0.5751491989157026, 0.5312496556741468, 0.5312489809555265, 0.5599930165923962, 0.55999291797663]</t>
+  </si>
+  <si>
+    <t>[20.885184371365824, 20.884808332295695, 20.88456346525701, 20.884438926724297, 117.98391614654112, 117.98391602189817, 117.98390598633655, 122.33827815208872]</t>
+  </si>
+  <si>
+    <t>[0.5751452980177355, 0.5751511260215578, 0.5751510621093758, 0.5751503973429931, 0.531251660855286, 0.531251311622095, 0.5312508620911358, 0.5599950609297629]</t>
+  </si>
+  <si>
+    <t>[11.73757025055809, 11.737338130106032, 11.737155550186861, 11.737038891117134, 110.63463746104301, 110.63465845369308, 108.03817232327175, 108.61987525959178, 108.61987594140089]</t>
+  </si>
+  <si>
+    <t>[0.5618022183493928, 0.5618078602681864, 0.5618074921236743, 0.5618061343216698, 0.49378846573714585, 0.49378819499780935, 0.5267585994034795, 0.5304913036779634, 0.5304912885760237]</t>
+  </si>
+  <si>
+    <t>[5.681549515282615, 116.77872508587967, 17.148467967990634, 17.148695442876257, 17.148741684429304]</t>
+  </si>
+  <si>
+    <t>[0.2724341990447153, 0.5468382840357433, 0.6018267466473636, 0.6018155352056993, 0.6018125348215428]</t>
+  </si>
+  <si>
+    <t>[2.765251585345057, 5.995090573276335, 25.638756643233627, 25.63876618730794, 26.075724666055613, 26.07576729728411, 26.075779251933845]</t>
+  </si>
+  <si>
+    <t>[0.35364211502502046, 0.5406141131181289, 0.27905113976167767, 0.2790510567970793, 0.27974279515076966, 0.2797426714346242, 0.27974259742745977]</t>
+  </si>
+  <si>
+    <t>[23.607150142120535, 34.07754246819787, 67.31496881244348, 69.03576580236317, 19.5489481898569, 16.014605649135785]</t>
+  </si>
+  <si>
+    <t>[0.3321667091083442, 0.3586547995570875, 0.4239041527999611, 0.4192962325728713, 0.5926907853117931, 0.5953864308175061]</t>
+  </si>
+  <si>
+    <t>[2.6174911432833197, 4.506405014160971, 5.9951285820203415, 26.075672604854702, 26.0757218921645, 26.075763338355298, 26.07578600228173, 26.075791594063322]</t>
+  </si>
+  <si>
+    <t>[0.27760420133360864, 0.5005334180948443, 0.5406166392346484, 0.27974296223494166, 0.2797429003152314, 0.27974266895058764, 0.2797423518895367, 0.2797422110109853]</t>
+  </si>
+  <si>
+    <t>[33.93238343040816, 116.77874815769228, 17.148456961862372, 17.148359508081032, 14.877296748177]</t>
+  </si>
+  <si>
+    <t>[0.4032243875562887, 0.5468368951486677, 0.6018241741990654, 0.6018200826316833, 0.6018810780133975]</t>
+  </si>
+  <si>
+    <t>[28.250895288057883, 65.94696978872247, 65.94696978872247]</t>
+  </si>
+  <si>
+    <t>[0.36641421161245025, 0.5907832161120475, 0.5907832161120475]</t>
+  </si>
+  <si>
+    <t>[2.61749139332106, 4.506346303063452, 25.638734134189626, 25.638742090275677, 25.638857319236223, 26.075709240690152, 26.075745888430575, 26.075747032118816]</t>
+  </si>
+  <si>
+    <t>[0.2776044119044591, 0.5005322752026243, 0.2790513369818185, 0.279051295640592, 0.27905080329364984, 0.27974279067227226, 0.27974268750008685, 0.27974268137400177]</t>
+  </si>
+  <si>
+    <t>[5.106727406430052, 5.106622751931454, 27.137663596251834, 24.300492586093192, 24.300482521514578, 24.300475080224388, 24.300473484980145, 65.94670574169977]</t>
+  </si>
+  <si>
+    <t>[0.28096010321024656, 0.28096030404183914, 0.7225378936204326, 0.6927248078331162, 0.6927241666850718, 0.6927231724294859, 0.6927219927710713, 0.5907856277459488]</t>
+  </si>
+  <si>
+    <t>[3.6942344274548193, 5.68487334450318, 37.88599436899223, 37.88601429621406, 37.886029374514706]</t>
+  </si>
+  <si>
+    <t>[0.2882011379619223, 0.5657199226103783, 0.6925056237625448, 0.6925044581418014, 0.6925034566967181]</t>
+  </si>
+  <si>
+    <t>[12.932791786318568, 2.6174982382942047, 2.6174909475648316, 5.995147291201794, 26.075711301182864, 26.07575602186427, 26.07576464105613, 28.523254203872174, 28.523158980991283]</t>
+  </si>
+  <si>
+    <t>[0.2370932937281147, 0.2776042728644948, 0.27760448614940814, 0.5406171376405918, 0.27974279753584835, 0.2797422445792582, 0.2797418116840281, 0.2824934165395639, 0.28249366512269874]</t>
+  </si>
+  <si>
+    <t>[2.7890187863686897, 5.995232709510348, 26.075611017967372, 26.075653552133794, 26.075706293766977, 26.075740194175395, 26.075749338519003]</t>
+  </si>
+  <si>
+    <t>[0.36428796783329426, 0.5406176897058647, 0.27974292006936924, 0.2797429396886053, 0.2797428277874851, 0.27974258687881703, 0.27974247257651175]</t>
+  </si>
+  <si>
+    <t>[2.7890235976607585, 8.155007663916866, 10.431627850660718, 28.523176709345194, 28.52319871302582, 28.52322507709162, 28.52324613723176, 28.523250439048457]</t>
+  </si>
+  <si>
+    <t>[0.3642881542388248, 0.5526454712717397, 0.5618456791311434, 0.2824936938379214, 0.28249368957139087, 0.2824936629644359, 0.2824936249745013, 0.2824936150417997]</t>
+  </si>
+  <si>
+    <t>[2.130544626451741, 2.1011407773520756, 3.6223506740930773, 24.95387234776695, 25.416418974245524, 25.416463675386034, 25.416480240294344, 25.416577880401622]</t>
+  </si>
+  <si>
+    <t>[0.2803893688000785, 0.3658081968602668, 0.5111637479859912, 0.2643616614370239, 0.264945739270974, 0.26494552069643806, 0.2649453193524591, 0.26494479509883345]</t>
+  </si>
+  <si>
+    <t>[1.974640620975584, 3.2123035378060614, 24.953812987226144, 24.953860529537454, 25.416409565277558, 25.416438156046528, 25.416463340837, 25.416475863849545]</t>
+  </si>
+  <si>
+    <t>[0.3263961605603739, 0.5075060557009872, 0.2643616325622261, 0.26436168864594967, 0.26494573369227387, 0.26494562421115014, 0.2649453951376808, 0.26494521517317426]</t>
+  </si>
+  <si>
+    <t>[75.01985936242436, 73.05830722032738, 73.05829704454787, 73.05827781356246, 73.05826503095555, 74.65088767792102, 74.65086882963806, 74.65079070484454, 112.43271714351964, 112.43199956440677, 112.43190340965613]</t>
+  </si>
+  <si>
+    <t>[0.500607878828589, 0.49394515533604527, 0.49394517167442403, 0.49394510849720513, 0.49394505462731153, 0.49936695857335645, 0.4993667136379457, 0.49936524136929694, 0.4978709852800874, 0.49786712592790927, 0.49786653614808474]</t>
+  </si>
+  <si>
+    <t>[19.116761805845737, 19.146998125135273, 19.147010577029207, 19.147041422212965, 19.11681413861657, 19.116834335963468, 19.11683007123201, 19.116692046019885, 19.11654904059282, 19.11646911912571, 93.14007657328573, 96.96879675169403]</t>
+  </si>
+  <si>
+    <t>[0.5518358154803729, 0.5509552154675591, 0.5509554737348178, 0.5509557401716998, 0.5518366466072864, 0.5518365952363374, 0.5518363684049686, 0.5518357433514478, 0.5518346542361103, 0.5518337035446819, 0.4400757185863079, 0.5468747116783055]</t>
+  </si>
+  <si>
+    <t>[95.57982350706958, 95.57967145070783, 95.57960634148222, 95.57965835773318, 95.57973179615391, 95.57974371421022, 95.57978412659797, 95.57985744984418, 148.0904643156495, 149.29216856507813, 149.29174657188497]</t>
+  </si>
+  <si>
+    <t>[0.440414528267519, 0.4404145299530721, 0.4404145184955914, 0.4404145523873022, 0.44041454195528346, 0.44041460704225033, 0.44041469292316965, 0.4404146829112062, 0.59159348129297, 0.5991067390682852, 0.5991052020323512]</t>
+  </si>
+  <si>
+    <t>[19.147014812832065, 19.147015992984016, 19.147026399444606, 19.147051127460507, 19.147098389777593, 19.11688410030498, 19.11679736536966, 93.13978425438252, 93.13987443225719, 93.13994088286843, 93.14002262066856, 77.1969817728286]</t>
+  </si>
+  <si>
+    <t>[0.5509549053840137, 0.55095517871187, 0.5509553820129118, 0.5509556027955972, 0.5509556723865416, 0.5518363686099615, 0.5518361080297715, 0.44007514892651894, 0.44007537287245513, 0.44007546555032373, 0.4400755367516168, 0.5123505510433676]</t>
+  </si>
+  <si>
+    <t>[19.116767486114203, 19.14703268206425, 19.116800810909073, 19.116905872299437, 19.116907197471164, 93.13970885348533, 93.13979557582671, 93.1399042149607, 93.13999791559009, 93.14010670668715, 77.19701906701208]</t>
+  </si>
+  <si>
+    <t>[0.5518357851800657, 0.5509553142507814, 0.5518365033294673, 0.5518369930459008, 0.5518369745088214, 0.4400747331308446, 0.44007518879519175, 0.4400754867511798, 0.4400756393183174, 0.4400757914179744, 0.5123512001827907]</t>
+  </si>
+  <si>
+    <t>[59.448194559242616, 59.44811901940608, 59.16040983230779, 59.160436534045324, 59.160473256561836, 59.16048109310952, 59.16050473412938, 59.16054904942008, 122.41013883144002, 123.9409297366456, 123.9408900471744]</t>
+  </si>
+  <si>
+    <t>[0.31085903444592616, 0.31085895741643793, 0.31012601920459754, 0.3101260826396935, 0.31012612580263216, 0.3101261246807106, 0.310126114859708, 0.3101260311123484, 0.5384723935112814, 0.544436757109262, 0.544436356028882]</t>
+  </si>
+  <si>
+    <t>[64.85051851161732, 80.97115672234322, 70.20778310206755, 67.66136669929149, 67.66136669930502]</t>
+  </si>
+  <si>
+    <t>[0.5015762148813353, 0.46965701257771325, 0.4551164448787792, 0.5139676373925343, 0.5139676373924762]</t>
+  </si>
+  <si>
+    <t>[19.116786092634204, 19.11676642535157, 19.116781771983344, 19.116817887981824, 19.11684619785752, 19.116837639121226, 19.116773417694798, 19.116591434846885, 19.11650379368033, 93.13987338016227, 96.96860805913433]</t>
+  </si>
+  <si>
+    <t>[0.5518363764293714, 0.5518366482680951, 0.5518369209779759, 0.5518371276304948, 0.5518370783780814, 0.5518368568996245, 0.5518364018854782, 0.5518354442572916, 0.5518345815795184, 0.4400754352797321, 0.546874312766111]</t>
+  </si>
+  <si>
+    <t>[19.11673496129061, 19.14696853710299, 19.14698491868666, 19.147018366885202, 19.14703506567505, 19.147026445938184, 19.146983833586464, 19.146811692927855, 19.146721974006837, 19.146645315590902, 9.751855241600879]</t>
+  </si>
+  <si>
+    <t>[0.5518360277403369, 0.5509553943108758, 0.5509557339388846, 0.5509558839269035, 0.550955839190731, 0.5509556351443636, 0.5509552025961721, 0.5509542492598019, 0.5509533848037822, 0.5509522954956634, 0.6505926216996923]</t>
+  </si>
+  <si>
+    <t>[19.116781945734054, 19.14703510712838, 19.147046424808234, 19.147074457309067, 19.147098952503743, 19.1168803403616, 93.13946827303675, 93.13955187771361, 93.1396506000299, 93.13972434431444, 93.13982162384669, 93.13990180050428, 77.19684239284967]</t>
+  </si>
+  <si>
+    <t>[0.5518363495997519, 0.5509557786826457, 0.5509559815740185, 0.5509561591288621, 0.5509561640794814, 0.5518368720715396, 0.4400741322797538, 0.4400746455307348, 0.44007498422260477, 0.44007513585532254, 0.4400752777482328, 0.4400753698738805, 0.5123502081948625]</t>
+  </si>
+  <si>
+    <t>[19.116731926876785, 19.14698244934115, 19.146995722442576, 19.14702148530826, 19.147042390913516, 19.147072834648, 19.147046204481452, 19.14689628234962, 19.14674555107958, 19.14667274613448, 19.146612565424736, 19.14659707775965, 19.14659725378638]</t>
+  </si>
+  <si>
+    <t>[0.5518359838175686, 0.5509553853256479, 0.5509556546491173, 0.5509557985297001, 0.550955796550192, 0.550955682374233, 0.5509554285663455, 0.5509548055202721, 0.5509537304747263, 0.5509529023282141, 0.5509518786122279, 0.5509510963784386, 0.5509510820222191]</t>
+  </si>
+  <si>
+    <t>[19.116727027408132, 19.1469858244348, 19.147001591208667, 19.14702531620411, 19.147069155401404, 19.14710996881384, 19.11673872486071, 93.13969218022528, 93.13977552407704, 93.13983748625817, 93.13991000975783, 77.19687268979315]</t>
+  </si>
+  <si>
+    <t>[0.551835240741202, 0.5509548301914503, 0.5509552207932635, 0.5509554737795758, 0.5509556123612142, 0.5509555288965691, 0.5518360229284294, 0.4400749464789897, 0.4400751341751051, 0.4400752259340935, 0.44007530323826544, 0.5123500787123617]</t>
+  </si>
+  <si>
+    <t>[19.147045604436194, 19.147058002836555, 19.147082032750628, 19.116873938637315, 19.116908753061942, 93.13950049626568, 93.13950675770107, 93.13956554016544, 93.13968383878196, 93.1397878408501, 93.13988878891865, 77.19687334058828]</t>
+  </si>
+  <si>
+    <t>[0.550955588805638, 0.5509559719125784, 0.5509562913132582, 0.5518373947553937, 0.5518374079752062, 0.4400739755008399, 0.4400742411814604, 0.4400746438399601, 0.44007507065300305, 0.44007529136175444, 0.4400754615873377, 0.5123507151502047]</t>
+  </si>
+  <si>
+    <t>[19.116738458900993, 19.147006764418443, 19.14703023785225, 19.147072153921705, 19.1471025160685, 19.147123522659527, 19.147044979004278, 93.13961023094737, 93.13969815836869, 93.13978606701592, 93.13988221871567, 77.1968621361739]</t>
+  </si>
+  <si>
+    <t>[0.5518360154438985, 0.5509556663166993, 0.5509559826072246, 0.550956226196008, 0.5509562591558633, 0.5509562075136732, 0.5509561604132754, 0.4400747622323522, 0.44007508929478284, 0.440075267698497, 0.44007542523037424, 0.5123507159418454]</t>
+  </si>
+  <si>
+    <t>[125.80321038506364, 125.80382305679628, 68.46457469036511, 40.42874174335891, 40.428721607837595, 40.42871705662746]</t>
+  </si>
+  <si>
+    <t>[0.5325334687362585, 0.5325352967951233, 0.45087813033098595, 0.31365563854306605, 0.31365586719115923, 0.31365590634808876]</t>
+  </si>
+  <si>
+    <t>[25.510465681454058, 15.417149168339092, 15.417310543557418, 15.41731054356004]</t>
+  </si>
+  <si>
+    <t>[0.6274910676744303, 0.6511066526822372, 0.6510951511594115, 0.6510951511588886]</t>
+  </si>
+  <si>
+    <t>[104.13331519263646, 125.80330141657386, 125.80400945706232, 68.46493385703221, 40.428656080759566, 40.428552973986584, 40.428553456199765]</t>
+  </si>
+  <si>
+    <t>[0.6444432512211885, 0.5325332499858072, 0.532535177857542, 0.4508774926760369, 0.31365518114063023, 0.31365508548369675, 0.3136551244854732]</t>
+  </si>
+  <si>
+    <t>[36.55927583018404, 14.672907052527092, 20.025205923663023, 20.02520592366563]</t>
+  </si>
+  <si>
+    <t>[0.6536829144202007, 0.563515977178947, 0.27082923540834036, 0.270829235408343]</t>
+  </si>
+  <si>
+    <t>[12.650259767316232, 11.75856860551257, 12.650306948846449, 11.758579979900137, 11.758495502549344, 11.758661386407015, 5.127430500592206, 5.127455977195599, 3.3796649479942533, 4.374956832881815, 2.8518032775217765, 2.8518268225394503, 2.851836857114396, 2.521264279891627]</t>
+  </si>
+  <si>
+    <t>[0.5612796034255096, 0.5611063878889118, 0.5612852379534103, 0.561108029979331, 0.5610769346140013, 0.5611082366689457, 0.4900077408563849, 0.49002944983043595, 0.5098557967393978, 0.47804317788686296, 0.4647431645068253, 0.46474283586166, 0.46474284465317195, 0.46000041914104856]</t>
+  </si>
+  <si>
+    <t>[125.80410083141838, 125.80441027336482, 83.11760505093001, 40.428515016067394, 40.42897442500511, 40.42894260752714, 40.42893037000949]</t>
+  </si>
+  <si>
+    <t>[0.5325389800863141, 0.5325401335349577, 0.4577124315572239, 0.313654862789214, 0.31365595181538247, 0.31365535371537995, 0.3136554200666333]</t>
+  </si>
+  <si>
+    <t>[126.6515882730323, 126.65144877196619, 126.65132976642258, 126.65115687754344, 126.65100041238793, 126.65088845796213, 126.65075215068808, 27.224914404260453]</t>
+  </si>
+  <si>
+    <t>[0.5901436239519404, 0.5901433130556673, 0.5901428677081162, 0.5901418156535798, 0.5901404241805506, 0.5901391336168624, 0.5901371554353314, 0.3376843067666527]</t>
+  </si>
+  <si>
+    <t>[24.074373161667086, 24.07446690547136, 22.542816872254424, 22.542838968368482, 21.070034017706437, 21.070046802933422, 22.828039610086005, 21.3169207730681, 10.687537243253901, 4.65702818487668, 4.657071491244963, 4.657062418956964, 18.862119483040736, 18.8621131293627, 18.86211319898106, 18.86211394754328, 18.86211548780055]</t>
+  </si>
+  <si>
+    <t>[0.6347163110110171, 0.6347180593216649, 0.6396806099697384, 0.6396813091244677, 0.6443374861640175, 0.644338309903818, 0.6846834338696076, 0.6803919786731731, 0.6436739149365789, 0.49088208666398253, 0.49088070850011134, 0.49087956101463254, 0.2400575641049072, 0.2400575736168955, 0.24005754481710606, 0.24005751914651546, 0.24005748933254972]</t>
+  </si>
+  <si>
+    <t>[22.827953225388683, 18.16660042442511, 22.82801787449988, 18.166577050803177, 21.316742722076647, 21.31643881767651, 21.316908334548057, 21.316613983269853, 15.416981988678426, 10.687492319394241, 7.450090704361181, 4.657095082578678, 4.657161339173076, 4.65717395585188, 18.86214521225038]</t>
+  </si>
+  <si>
+    <t>[0.6846796478705082, 0.6499246043790682, 0.684686255002345, 0.649927152047104, 0.680391541081343, 0.6803310001979145, 0.6803934725352503, 0.680332715020018, 0.6511084458486964, 0.6436762052816737, 0.5188182979473778, 0.4908795420045547, 0.4908816716372952, 0.49088029427410657, 0.24005750159282616]</t>
+  </si>
+  <si>
+    <t>[37.86876438316814, 37.86871308035346, 37.8686666048678, 37.86861145689412, 37.86855179606581, 37.8685157335665, 48.31698719036424, 46.970884414970925]</t>
+  </si>
+  <si>
+    <t>[0.6920288721959598, 0.6920299303316675, 0.6920299327601757, 0.6920277239954661, 0.6920247974303878, 0.6920221653192155, 0.4620782261455795, 0.4679052676403924]</t>
+  </si>
+  <si>
+    <t>[126.61688991700794, 126.61678271556819, 126.61664922297952, 126.61656772687557, 126.61646393269429, 126.61634928751441, 126.61623417207548, 126.61610207946049, 126.61599159805981]</t>
+  </si>
+  <si>
+    <t>[0.5902533393430708, 0.5902530770577267, 0.5902526471355086, 0.5902521269964645, 0.5902515164973885, 0.5902507094951147, 0.5902497698426675, 0.5902486184591389, 0.5902478443838849]</t>
+  </si>
+  <si>
+    <t>[32.86660334452948, 32.86662682429403, 26.288569693725247, 32.86664846404256, 32.866774593015904, 30.84034830322116, 30.841141647029627, 14.672737631449571, 14.672771140192175, 14.672813335036327, 10.58940184326898, 10.589507970637168, 6.504405113458639, 6.5044554535221275, 18.448233362690463]</t>
+  </si>
+  <si>
+    <t>[0.7077462324519006, 0.707747139969134, 0.6134818271665119, 0.7077477724460749, 0.7077492044648507, 0.7005165152534368, 0.7005858236857245, 0.5635156883559734, 0.5635158550686324, 0.5635160041036875, 0.5064778829109335, 0.5064778609823338, 0.4718653044020192, 0.4718638623416243, 0.24096561744566808]</t>
+  </si>
+  <si>
+    <t>[32.86650615987065, 21.518140183064624, 32.86667156869979, 21.518137575320758, 30.840911822873178, 30.84102313769492, 30.84113602387242, 14.672747402011208, 14.672783288550788, 9.834028788860913, 10.589406468400703, 10.589548697622899, 6.5044393367290025, 6.50447925871824, 18.448639123520053]</t>
+  </si>
+  <si>
+    <t>[0.7077416600317683, 0.6076888301352504, 0.7077480749753807, 0.6076903210185384, 0.7005844382412385, 0.7005854429270603, 0.7005860820322753, 0.563516009600808, 0.5635161741388129, 0.5756882819858187, 0.5064782057628487, 0.5064778659737619, 0.47188201292390436, 0.47188057980298315, 0.240964781603878]</t>
+  </si>
+  <si>
+    <t>[8.956716757079173, 36.55926122033441, 9.83409409275722, 10.589526211425152, 10.589526211425152]</t>
+  </si>
+  <si>
+    <t>[0.4941915638073501, 0.6536826635405317, 0.575688334606064, 0.5064728813756899, 0.5064728813756221]</t>
+  </si>
+  <si>
+    <t>[9.079011050191902, 9.079020507914585, 9.584489833407194, 9.584491848611375, 12.650260604684393, 11.758421284747591, 3.3796550755408985, 2.851745582211515, 2.851768186003872, 2.851768010923505, 2.8517544929750462, 18.561313090301127, 18.561308112813034, 18.56130726716765, 18.561306723875774]</t>
+  </si>
+  <si>
+    <t>[0.4798930238621124, 0.47989315271382893, 0.5108787593611771, 0.5108790746476967, 0.5612822477229001, 0.5610754089738652, 0.5098799367920079, 0.4647449272230163, 0.4647437614210365, 0.4647423416067541, 0.4647411849162376, 0.23021433253372897, 0.23021432687559257, 0.23021431183083355, 0.23021429605129132]</t>
+  </si>
+  <si>
+    <t>[13.275359463700072, 9.079024071396152, 12.650274904789066, 11.758376822602019, 3.3796599151731876, 2.851731231433454, 2.851740338669528, 18.561300943356393, 18.561299205229112, 22.262204252730566, 22.262204831889164]</t>
+  </si>
+  <si>
+    <t>[0.530548636415276, 0.47989318617458077, 0.5612838523440593, 0.5610763928025759, 0.5098564482893122, 0.4647432512806283, 0.4647417416279874, 0.23021435704100593, 0.23021433302508232, 0.26576291380505024, 0.26576291674715197]</t>
+  </si>
+  <si>
+    <t>[61.79686694102729, 61.79682209453132, 61.7967796550209, 61.79675354013867, 61.79673213930189, 61.79670593639981, 19.681512483881136, 19.458300398073703, 19.45831432983008]</t>
+  </si>
+  <si>
+    <t>[0.48364645341088885, 0.4836463308690412, 0.4836462056291118, 0.48364612344669955, 0.4836460459778807, 0.4836458581673828, 0.4367815182854273, 0.43369207331357024, 0.4336918908714794]</t>
+  </si>
+  <si>
+    <t>[27.095165836348386, 27.09521441638666, 27.095280391616836, 27.095336179177494, 27.095327535116617, 27.09526632066937, 27.095126239451307, 27.095047788233398, 27.094958523358052, 96.15019693700675, 96.150248809876, 99.29024082413277]</t>
+  </si>
+  <si>
+    <t>[0.6084863317138216, 0.6084873905825536, 0.6084882348612672, 0.6084885385131684, 0.6084885689362343, 0.6084881582989221, 0.6084873285464933, 0.6084866919214202, 0.6084857669318848, 0.4799069867929977, 0.4799070047919196, 0.6271591084927842]</t>
+  </si>
+  <si>
+    <t>[76.9553577435272, 76.95529382077747, 76.95523530490391, 76.95519669570558, 76.95514193909288, 76.95508047732342, 17.62231665534256, 18.304326901398188]</t>
+  </si>
+  <si>
+    <t>[0.4690745291182683, 0.4690747313458252, 0.46907491352515024, 0.4690750415430723, 0.4690751871999438, 0.4690752823598778, 0.4788306097815332, 0.4314559908084185]</t>
+  </si>
+  <si>
+    <t>[33.049788587871035, 33.04986836675053, 33.04995234101011, 33.05001038797505, 33.05008795105296, 33.05010466533473, 33.049920251035324, 33.0497938099869, 33.04970495259927, 33.04964080647894, 33.04955925523483, 91.27931547749293, 91.27934577298414, 73.74695989860719]</t>
+  </si>
+  <si>
+    <t>[0.6049506821763514, 0.604951996430991, 0.6049531113903592, 0.6049536551427187, 0.6049541092161632, 0.6049542562186062, 0.6049537022458749, 0.6049531075397957, 0.6049525564125706, 0.6049520755827568, 0.6049512928591806, 0.47691223647655845, 0.47691222779265674, 0.5904380575197372]</t>
+  </si>
+  <si>
+    <t>[19.146800214187728, 19.14683730023558, 19.146884186279124, 19.146920137925807, 19.146944751916536, 19.146879058787498, 19.146773039291517, 19.146701265110224, 19.14665145445191, 93.13996441143809, 93.14000348698649, 77.19695239993378, 77.19695566797807]</t>
+  </si>
+  <si>
+    <t>[0.5509516634320767, 0.5509525762156108, 0.5509532924143579, 0.5509535938420378, 0.5509537465793944, 0.5509536638714672, 0.5509532516792768, 0.5509528182106549, 0.5509524214553723, 0.44007542968532376, 0.44007549480323976, 0.5123508396700968, 0.5123508488120487]</t>
+  </si>
+  <si>
+    <t>[31.670417748417158, 31.670402086896846, 31.67039107809597, 31.670382820123663, 31.67037651372574, 31.670370264696466, 31.670363407171156, 31.670357450073908, 31.670346047293606, 1.333077221747902, 2.448471105321537, 2.4923187504222017, 2.5134009283317527]</t>
+  </si>
+  <si>
+    <t>[0.24892337106294607, 0.24892335673851665, 0.24892334444303985, 0.24892333368496894, 0.24892332239272894, 0.24892330588688283, 0.24892328641825334, 0.24892326846134133, 0.2489232332860017, 0.6298569434556294, 0.34552791844075237, 0.34244266586258204, 0.3407531931806202]</t>
+  </si>
+  <si>
+    <t>[29.477136803961894, 29.477136571049467, 29.477139596960228, 29.477145741408723, 29.47715408740741, 29.47716318139501, 29.477179274195773, 29.477190979688864, 29.477204369625724, 29.47722027921296, 34.861817275586446]</t>
+  </si>
+  <si>
+    <t>[0.47532832424870247, 0.47532809581990426, 0.4753278128773455, 0.47532746819128147, 0.4753271358789508, 0.4753268503707545, 0.47532641597614567, 0.47532612491394466, 0.47532580194771684, 0.47532541913513154, 0.5110199460217807]</t>
+  </si>
+  <si>
+    <t>[27.095191442134322, 27.09524293814363, 27.09531566497623, 27.095356687055354, 27.095290919218048, 27.095218167794677, 27.09509538193888, 27.09502141184691, 27.09494864732902, 27.09489516130968, 27.094889162534148, 14.779325875390516]</t>
+  </si>
+  <si>
+    <t>[0.6084876656949681, 0.6084886671012106, 0.6084893976163372, 0.608489597712859, 0.6084892099449507, 0.6084887165174224, 0.6084879468849081, 0.6084873555168635, 0.6084866072319545, 0.608485889510654, 0.6084856263757937, 0.7654669056408266]</t>
+  </si>
+  <si>
+    <t>[27.095123592834998, 27.0951643628109, 27.09521798162804, 27.095261947136894, 27.09525482471605, 27.095215100750547, 27.095151059015837, 27.095053965929658, 27.09493856006847, 27.09488206710379, 27.094843597368577, 27.09484217742297]</t>
+  </si>
+  <si>
+    <t>[0.6084867770456841, 0.6084876887720257, 0.6084884124502846, 0.6084886729998986, 0.608488720534048, 0.6084883980879935, 0.608487978173302, 0.6084873585331914, 0.6084864082095585, 0.6084857841822077, 0.6084852357414108, 0.6084851133904892]</t>
+  </si>
+  <si>
+    <t>[22.145673544719184, 62.3563207735259, 62.3563352489176, 62.35635203295061, 62.35636769740451, 62.35638110351742, 62.35640138372084, 62.356418573490544, 62.3564293156934, 62.3564153687311]</t>
+  </si>
+  <si>
+    <t>[0.29584072189241084, 0.4601379804420268, 0.4601380232200335, 0.46013797265439266, 0.4601378424077818, 0.46013768381003667, 0.4601373933198567, 0.4601371117261059, 0.4601368727180844, 0.46013690198911916]</t>
+  </si>
+  <si>
+    <t>[33.049810720679375, 33.04989471144004, 33.04998429020924, 33.050048925557924, 33.050127674430335, 33.05004558708805, 33.04985769064237, 33.04974020859607, 33.0496676576639, 33.04957771965099, 33.04953274499892, 33.04951814078015, 10.895453872730819]</t>
+  </si>
+  <si>
+    <t>[0.6049521948204826, 0.6049534090080144, 0.6049544426491769, 0.6049549133688589, 0.6049552194564487, 0.6049550527991925, 0.6049543687842023, 0.6049537519049838, 0.604953275077985, 0.6049525301131244, 0.6049520227737912, 0.6049516870629245, 0.7636447137077373]</t>
+  </si>
+  <si>
+    <t>[33.04973306177527, 33.04980354624772, 33.04987402729649, 33.04998359915754, 33.050035266523174, 33.049939709065264, 33.049793684551034, 33.04968669346428, 33.04961746027578, 33.04952520243443, 33.04947906148116, 33.04946212746321, 33.04946976064586]</t>
+  </si>
+  <si>
+    <t>[0.6049513157305515, 0.6049524602201655, 0.604953433461009, 0.6049543250153837, 0.6049545739055637, 0.6049543350842134, 0.6049537696028389, 0.604953217890797, 0.6049527796647333, 0.6049520509501577, 0.6049515575732831, 0.6049512333646159, 0.6049512087204414]</t>
+  </si>
+  <si>
+    <t>[33.04971108473034, 33.049796041214584, 33.049872748068424, 33.04997394718423, 33.05004271167835, 33.050116599560795, 33.04999093873842, 33.04985548753794, 33.04974994962869, 33.04967173724044, 33.04961733628088, 91.2792007608413, 91.2792266966761, 73.74686925310928]</t>
+  </si>
+  <si>
+    <t>[0.604949270533279, 0.6049508309648484, 0.6049520910732221, 0.6049533451463223, 0.6049538996709115, 0.6049543052106622, 0.6049540623403679, 0.6049535708829248, 0.6049530298368208, 0.604952513683652, 0.6049520714749494, 0.4769121256757379, 0.47691211786272697, 0.5904375084492811]</t>
+  </si>
+  <si>
+    <t>[19.146815165231192, 19.146854656133073, 19.146906757753285, 19.14694810696818, 19.146934360847737, 19.146845591929015, 19.14674178627662, 19.146675287950423, 19.14660872163103, 19.14657785743676, 93.13985633524098, 77.19680799741664]</t>
+  </si>
+  <si>
+    <t>[0.5509528638696198, 0.5509536861867427, 0.5509542718001093, 0.5509544474287297, 0.5509544271787943, 0.5509541521127639, 0.5509536257029755, 0.5509531534326632, 0.5509525170437684, 0.5509521224700588, 0.44007531461882854, 0.5123503787284039]</t>
+  </si>
+  <si>
+    <t>[19.14676611701306, 19.14679865273082, 19.146838408946437, 19.14686808676714, 19.146899167815832, 19.146878223233603, 19.146793471267948, 19.146711604022098, 19.146651312738936, 19.146581541623352, 19.146549181694635, 19.1465411949758, 5.373962028792306]</t>
+  </si>
+  <si>
+    <t>[0.5509520240339493, 0.5509528245010166, 0.5509534410954587, 0.5509536958615419, 0.5509538449973954, 0.5509538587386253, 0.5509535818397382, 0.5509531681216402, 0.550952764751728, 0.5509521474640905, 0.5509517607424778, 0.5509515894330173, 0.6189190598750021]</t>
+  </si>
+  <si>
+    <t>[41.89170807602407, 41.89167692539296, 41.89165831248558, 41.8916484387628, 41.891641992925514, 41.89166335314323, 57.18712863018672, 79.70609229422077, 90.36004292932849, 90.15369452747609, 90.15326570757149, 90.15317071418384]</t>
+  </si>
+  <si>
+    <t>[0.4089493035292934, 0.4089491257681038, 0.40894906717229834, 0.4089490660030422, 0.40894912383405907, 0.4089497803418787, 0.4796036471430679, 0.5210031950626384, 0.47044296599314195, 0.4736561433356615, 0.4736528544891061, 0.47365193577310427]</t>
+  </si>
+  <si>
+    <t>[16.766101628592388, 16.766323357844733, 15.41671437821206, 15.4167915948583, 15.41685556781182, 15.416922194298612, 15.416978941395842, 15.416994760689425, 15.417012698397315, 15.417034526012984, 15.417058109743776, 15.417084774740843, 15.417114378235022, 15.417149171981238, 15.417207420664147, 24.437279494150836, 24.43728234521175]</t>
+  </si>
+  <si>
+    <t>[0.6509727210450844, 0.6510201020945099, 0.651098863057731, 0.6511026167574181, 0.6511054454301773, 0.65110699921669, 0.6511069009445235, 0.651107555793462, 0.6511078580125736, 0.6511083100731699, 0.651108786441127, 0.651108956673662, 0.6511087825641447, 0.651108315759698, 0.6511068495744713, 0.27812561613042547, 0.27812562350529063]</t>
+  </si>
+  <si>
+    <t>[30.714192018366347, 30.71416190904153, 30.714146892371136, 30.714140379560753, 30.714154506790262, 48.34724422172112, 48.34733576775371, 49.02356212238848, 49.45207992799202, 49.45178283899745, 49.45167946043486]</t>
+  </si>
+  <si>
+    <t>[0.307671379344891, 0.3076712272837767, 0.30767118656983355, 0.30767119499000645, 0.30767145443365407, 0.35551600659664523, 0.35551640007796886, 0.3559856796382593, 0.3581846256536065, 0.3581825759644524, 0.35818204363753914]</t>
+  </si>
+  <si>
+    <t>[16.766402248584473, 15.416693113910648, 15.416734240848015, 15.416778247525768, 15.416850101873488, 15.416907995539036, 15.416924842324198, 15.416945728616154, 15.416964763687055, 15.416985686863347, 15.417007545794496, 15.417031658987357, 15.417055525571243, 15.417087979312672, 15.417121396175691, 15.417176237941836, 24.437270598808237]</t>
+  </si>
+  <si>
+    <t>[0.6510247610548167, 0.651095947595578, 0.6510991603500659, 0.6511019900456805, 0.6511041746933165, 0.6511054303805953, 0.6511059767084515, 0.6511065402709271, 0.6511072364417273, 0.6511075345136585, 0.6511080022919055, 0.6511084114421315, 0.651108616480007, 0.6511083735591581, 0.6511079008440823, 0.6511064620730441, 0.2781255816629708]</t>
+  </si>
+  <si>
+    <t>[8.981280304409939, 8.992730771368418, 8.229114105545294, 8.22914803132106, 8.229182697297265, 8.229212982926052, 8.229219537627234, 8.22923034174868, 8.229238996142973, 8.229244323717404, 8.229257801015164, 8.22926639845552, 8.229279855859682, 8.229293174033867, 8.22930610472778, 8.229326928862383, 8.229340294843578, 8.229343100250441]</t>
+  </si>
+  <si>
+    <t>[0.5492555445602831, 0.54858926624971, 0.5513206080937417, 0.5513227933527314, 0.5513247436569717, 0.5513250565839735, 0.5513254932564018, 0.5513259243331989, 0.5513262704463906, 0.5513270154162562, 0.5513268908646207, 0.55132727242101, 0.5513272851881211, 0.5513272017127923, 0.551326986622032, 0.55132629562724, 0.5513256450159363, 0.5513253739499412]</t>
+  </si>
+  <si>
+    <t>[41.89177458133845, 41.89174137649336, 41.891725384046815, 41.891718318634666, 41.89174349215578, 79.70591762797282, 79.70611546186, 81.69536581550068, 90.36044479088434, 90.15393670455705, 90.1538912825837]</t>
+  </si>
+  <si>
+    <t>[0.4089495520628654, 0.40894936192934084, 0.40894936557158534, 0.40894944841645764, 0.40895015196170026, 0.5210017635371436, 0.5210031156725085, 0.5222630891429836, 0.470443919099826, 0.4736545627989944, 0.4736542424642171]</t>
+  </si>
+  <si>
+    <t>[23.27177388487361, 16.788368480145106, 15.416725867276218, 15.41680064923948, 15.416865388800428, 15.416936652093524, 15.416988723336106, 15.417015367722403, 15.41703355392952, 15.417045314139546, 15.417075121270864, 15.417100285151802, 15.41713352399225, 15.41716855842148, 15.417223002255549, 24.4372539990977, 24.437256485889232]</t>
+  </si>
+  <si>
+    <t>[0.6666284859386973, 0.6499902944191707, 0.6511007721458876, 0.6511042552199051, 0.6511065540272191, 0.6511074091873594, 0.6511082510351064, 0.651108775655303, 0.6511091717431957, 0.6511098160370101, 0.6511098548521286, 0.6511098619111407, 0.6511096238075442, 0.6511091642158104, 0.6511078205064488, 0.27812552124230017, 0.27812552793339956]</t>
+  </si>
+  <si>
+    <t>[23.271772183723986, 16.788375848941566, 15.41674812082608, 15.416869231123295, 15.416929708310983, 15.416972870203681, 15.417001119341425, 15.417019827846945, 15.417038052510025, 15.417058550137751, 15.417084362904417, 15.417114869129986, 15.417174873344504, 15.417210821135127, 24.43724811604382]</t>
+  </si>
+  <si>
+    <t>[0.6666285863030013, 0.6499907098405739, 0.651101892029685, 0.6511063639817872, 0.6511070277643957, 0.6511077869959974, 0.6511083300303341, 0.6511087655100106, 0.6511091449160751, 0.6511094092264803, 0.651109402354688, 0.6511091989067592, 0.6511082324124712, 0.6511071315478996, 0.2781255123979143]</t>
+  </si>
+  <si>
+    <t>[32.54780752444614, 32.547820548567515, 32.547830037555286, 32.54783429918454, 39.75814738672601, 39.75815572296238]</t>
+  </si>
+  <si>
+    <t>[0.33868499046717443, 0.3386850712056283, 0.33868512212251956, 0.3386851295217464, 0.46315210127614515, 0.46315197318498547]</t>
+  </si>
+  <si>
+    <t>[21.750674225927153, 26.991559073420035, 28.440759385431985, 15.416784741149064, 28.44097925751918, 15.416908865347445, 15.416931614296562, 15.416947636331184, 15.416965218303595, 15.417011156834876, 15.417036542487386, 15.41706644505651, 15.417100566103326, 15.417133644515692, 15.417185487260108, 24.437241377083566, 24.43724231873308]</t>
+  </si>
+  <si>
+    <t>[0.6609776437635908, 0.6867735723250558, 0.6872108834061621, 0.6511035093586239, 0.6872075801368012, 0.6511067960768822, 0.6511073709693604, 0.6511077992763064, 0.6511082303093629, 0.6511090941886584, 0.6511094229469353, 0.6511094387932154, 0.6511092014099576, 0.6511087351634381, 0.6511074402953227, 0.2781254760297352, 0.2781254783147529]</t>
+  </si>
+  <si>
+    <t>[21.75068608988481, 15.416702989765252, 15.416742187996498, 15.416801966982868, 15.416860016129684, 15.416909415872786, 15.416928204548052, 15.416942376962492, 15.416956645358981, 15.416974424891388, 15.416996696433532, 15.417020953412456, 15.417051426660668, 15.417083796584967, 15.417115105280566, 15.417164117363795, 15.417186166182097]</t>
+  </si>
+  <si>
+    <t>[0.660978014758096, 0.6510980704783926, 0.6511012819914975, 0.6511039308556834, 0.6511055030891091, 0.6511065133615785, 0.6511071582135662, 0.6511074837554378, 0.6511079035458364, 0.651108348524209, 0.6511087850688352, 0.6511090513917805, 0.6511090457521168, 0.6511088594327994, 0.6511084696243079, 0.6511073670771844, 0.6511065197522834]</t>
+  </si>
+  <si>
+    <t>[21.750760026178714, 15.416721082375267, 15.416759354072878, 15.416795362596519, 15.416848393965791, 15.416904587522753, 15.416948066394955, 15.416959505468334, 15.416978570639854, 15.416999941660496, 15.417023867271169, 15.417049203351036, 15.417079074903816, 15.417115089303495, 15.41714946493776, 15.417178168441449, 15.41720807815872, 23.608138132749186]</t>
+  </si>
+  <si>
+    <t>[0.6609824842020294, 0.6510977678454442, 0.6511005499873822, 0.651102664976017, 0.6511047155010397, 0.651105795508211, 0.6511065058677677, 0.651106840032811, 0.6511073305426089, 0.6511078813435331, 0.6511084416787584, 0.651108857378711, 0.6511087849873971, 0.6511083846465616, 0.6511077299688539, 0.6511069387187474, 0.6511056705465096, 0.27448752197023213]</t>
+  </si>
+  <si>
+    <t>[13.100313007013376, 15.32282061593985, 8.22912069673028, 8.229153985107535, 8.22918551741611, 8.229215696270094, 8.229226013632697, 8.22923303018, 8.229239529054105, 8.229249818711962, 8.229262046838786, 8.229273002760953, 8.229286693886664, 8.229300485548407, 8.229313597969975, 8.22933533865855, 8.22934538870607, 8.229348129814655]</t>
+  </si>
+  <si>
+    <t>[0.551272233395936, 0.5562576251134418, 0.5513220987518881, 0.551323836392112, 0.5513253585720731, 0.5513259397059671, 0.5513263063506115, 0.5513266331325815, 0.5513269116428829, 0.5513272091579926, 0.5513275096466047, 0.5513277512292115, 0.5513277614245419, 0.5513276606597859, 0.5513274479771011, 0.5513268249100867, 0.5513262194593889, 0.5513259839774005]</t>
+  </si>
+  <si>
+    <t>[4.49211958084855, 67.3149272455822, 69.03587429627234, 19.548881383643977, 19.548964823959214, 19.548977080781622]</t>
+  </si>
+  <si>
+    <t>[0.2860601500078188, 0.42390457169181023, 0.4192969567185272, 0.5926901046016062, 0.5926853146256835, 0.592684552393356]</t>
+  </si>
+  <si>
+    <t>[1.4165099662796103, 1.1887000466838902, 2.044792205243496, 23.54375325916968, 23.54376117807593, 24.946649601408502, 24.94669521761066, 24.94670838325823]</t>
+  </si>
+  <si>
+    <t>[0.2523817810288269, 0.29357322468597546, 0.6174473047500961, 0.30423059179531325, 0.30423048159060634, 0.3048281233442033, 0.30482810991366854, 0.3048280578934118]</t>
+  </si>
+  <si>
+    <t>[17.143599817023883, 23.607158623690697, 67.31489680060518, 69.03577070134631, 69.03574599358511, 67.31450400857342]</t>
+  </si>
+  <si>
+    <t>[0.44331492994114674, 0.33216696665563256, 0.42390377393829953, 0.41929641332487994, 0.4192947375920502, 0.42388570414003285]</t>
+  </si>
+  <si>
+    <t>[2.78900987280239, 5.995180535741021, 26.07568998069002, 26.07572751032358, 26.075767272148113, 26.07579171273712, 26.075797860216817]</t>
+  </si>
+  <si>
+    <t>[0.36428753436811523, 0.5406171157280352, 0.2797429452721738, 0.2797428911655154, 0.27974268746531483, 0.2797423730897669, 0.27974222906082896]</t>
+  </si>
+  <si>
+    <t>[1.1491989705372347, 1.1023761118227338, 23.728288265723158, 24.530310743665726, 24.530356045998925, 24.530391208469855, 24.210263862125093, 24.210266056022263]</t>
+  </si>
+  <si>
+    <t>[0.25249580745432754, 0.5743735715831956, 0.2872085392947252, 0.28773272646808495, 0.2877327015495198, 0.2877324052456495, 0.28841170880738753, 0.2884116862016556]</t>
+  </si>
+  <si>
+    <t>[19.177124130978783, 23.60715534595333, 67.31487258565461, 69.03592991223161, 19.548545512880505]</t>
+  </si>
+  <si>
+    <t>[0.32617617389237674, 0.33216693034511485, 0.4239036619760704, 0.4192957638946919, 0.5926925874970037]</t>
+  </si>
+  <si>
+    <t>[17.908308269480163, 14.297356685712227, 3.6941699052963783, 31.622456817535976, 48.333895890183705, 48.33397609452818, 46.98748217906759, 46.98748022869617]</t>
+  </si>
+  <si>
+    <t>[0.38119545290061185, 0.37430960402693486, 0.2882010741699476, 0.7422005706098828, 0.46208862911505033, 0.4620886898453777, 0.4679166209901631, 0.46791623839371677]</t>
+  </si>
+  <si>
+    <t>[1.4165106802030485, 1.416509933149403, 2.765250861683955, 2.0447814793225927, 23.543733040771652, 24.489712537825984, 24.946615301258234, 24.946663233547074, 24.94667716142122]</t>
+  </si>
+  <si>
+    <t>[0.25238191801023413, 0.25238197598969403, 0.3536422542562791, 0.6174478424860667, 0.3042308247372582, 0.30336795585444093, 0.3048281336199748, 0.30482818198618067, 0.30482815691594145]</t>
+  </si>
+  <si>
+    <t>[1.416509110834315, 1.1886996907688472, 2.044818850790323, 23.543715563966803, 23.54372638763454, 23.54373449904204, 24.946602658448025, 24.946645820312717, 24.946653135911692]</t>
+  </si>
+  <si>
+    <t>[0.25238183864366703, 0.29357322201669617, 0.6174455716204702, 0.3042309536662719, 0.3042308572098906, 0.3042307817853875, 0.3048281599055802, 0.3048282174940447, 0.3048282119603854]</t>
+  </si>
+  <si>
+    <t>[3.6941585560479027, 36.623461846793, 37.88601243041959, 37.88600009286287, 37.88599185396695, 37.885990896177645, 46.98731850257177]</t>
+  </si>
+  <si>
+    <t>[0.2882013322892742, 0.7078790976411866, 0.6925070363807516, 0.6925056162342067, 0.692503688063902, 0.6925015631561109, 0.4679168584583877]</t>
+  </si>
+  <si>
+    <t>[5.6848751795417645, 37.88598967043552, 37.88600071492825, 37.886021644988084]</t>
+  </si>
+  <si>
+    <t>[0.5657212406072167, 0.6925063828479525, 0.6925047467701756, 0.6925031787241801]</t>
+  </si>
+  <si>
+    <t>[2.6174824756875568, 4.50638608171931, 5.9951311687362105, 26.075630585428993, 26.07568775438682, 26.075737337678085, 26.075766047727893, 26.075773696717043]</t>
+  </si>
+  <si>
+    <t>[0.27760420351253234, 0.5005336501001769, 0.5406169797349177, 0.279742913711473, 0.27974291782075095, 0.27974275969925844, 0.27974250491294755, 0.27974238780393357]</t>
+  </si>
+  <si>
+    <t>[2.5355985998692043, 5.995240897689966, 5.995101620057905, 26.07562590994681, 26.075676782118602, 26.07572501206145, 26.075751917632385, 26.075756119326325]</t>
+  </si>
+  <si>
+    <t>[0.3239940658812499, 0.5406164985486888, 0.5406161828820883, 0.2797429166793942, 0.27974291752147357, 0.27974276708601437, 0.27974253863037246, 0.27974248331749274]</t>
+  </si>
+  <si>
+    <t>[2.765253536664745, 5.995255548362401, 8.15502290957417, 28.523173046878846, 28.523196862572533, 28.523213083433678, 28.52323477068022, 28.523252144627353]</t>
+  </si>
+  <si>
+    <t>[0.35364207102573414, 0.5406167240941785, 0.5526474537599898, 0.28249367389345487, 0.28249367395119374, 0.282493663181874, 0.2824936341849547, 0.28249359845045297]</t>
+  </si>
+  <si>
+    <t>[0.9190571010811506, 1.331601083925285, 23.728278537023748, 24.53029850781461, 24.530335069046615, 24.5303697041689, 24.210242769528264, 24.21024513592394]</t>
+  </si>
+  <si>
+    <t>[0.29290727082430296, 0.580102950133639, 0.28720860506069185, 0.2877327479461109, 0.2877327310621235, 0.2877325191815759, 0.2884119939948838, 0.2884119767147374]</t>
+  </si>
+  <si>
+    <t>[1.224006386391915, 2.9129359806427195, 1.3315951172243723, 23.728269112357925, 24.53029379330731, 24.530328709866176, 24.21011706604413, 24.21013073811046, 24.210131463331965]</t>
+  </si>
+  <si>
+    <t>[0.2892819930012823, 0.48390679995281016, 0.5801042590474516, 0.2872086384210791, 0.2877327708442982, 0.287732734893492, 0.28841261942588864, 0.28841243282345147, 0.2884124211082829]</t>
+  </si>
+  <si>
+    <t>[58.862319891404596, 58.862276699019446, 58.862237521433606, 130.4661352123192, 137.29096343773557, 137.29075366478338, 140.2661795495671]</t>
+  </si>
+  <si>
+    <t>[0.4751139055316668, 0.4751135717958196, 0.4751131716025001, 0.4790641702954833, 0.4843317306620737, 0.4843310208496598, 0.48691522576470364]</t>
+  </si>
+  <si>
+    <t>[29.505119740117973, 14.086228822729046, 14.086216014578604, 20.16570762722973, 20.16568440625169, 20.165674584060604, 20.165670793875236, 20.165670852654742, 20.165674768808845, 20.165681424075277, 20.16569548177917, 20.165711556964304, 20.165720176572886]</t>
+  </si>
+  <si>
+    <t>[0.690102022484121, 0.7048497590802957, 0.7048535610304798, 0.7103524464108196, 0.7103525035078655, 0.7103524551898397, 0.7103524034811319, 0.7103523386170185, 0.710352303577049, 0.7103522789072642, 0.7103522486353346, 0.7103522162017278, 0.7103521936820343]</t>
+  </si>
+  <si>
+    <t>[44.57227034928408, 50.58021284377518, 54.94236682547967, 55.5522017362602, 55.55242958103862, 55.738477507717526]</t>
+  </si>
+  <si>
+    <t>[0.3653772012857003, 0.36135143344884213, 0.35638879522175587, 0.3577947224323896, 0.35779456249310726, 0.35846725640317645]</t>
+  </si>
+  <si>
+    <t>[23.20711675300888, 18.26481298856934, 18.264779855585534, 18.264767461576973, 18.264764181292065, 18.264764407672313, 18.264769545084963, 12.27056352519719, 12.270573589546357, 12.270584423359587, 12.270598086396925, 12.270601439210077]</t>
+  </si>
+  <si>
+    <t>[0.6761683650921809, 0.6259180962777389, 0.625918415966074, 0.6259184031783261, 0.6259183480207471, 0.6259182958566422, 0.6259182175319555, 0.642340167567849, 0.6423401037312461, 0.6423400339712383, 0.6423399341248931, 0.642339906586566]</t>
+  </si>
+  <si>
+    <t>[7.884807454367056, 6.1920660163122, 6.192046370581271, 6.192035184626974, 6.192030094541405, 6.192027698699416, 6.192026862139749, 6.192026934333272, 6.192028288778383, 6.192030375147186, 6.192033357121992, 6.19203812814838, 4.079878737258486]</t>
+  </si>
+  <si>
+    <t>[0.574667962156809, 0.5425533059244652, 0.5425540058326547, 0.5425540956817865, 0.5425540174458996, 0.5425539236505516, 0.5425538468233795, 0.5425537407915979, 0.5425536632132177, 0.5425535990830992, 0.5425535452109046, 0.5425534790664014, 0.5663707605564231]</t>
+  </si>
+  <si>
+    <t>[58.862327333352894, 58.86228767362002, 75.06952992499204, 130.46617082197932, 137.29111037136178, 137.29102115913162, 137.29094264599283, 137.29092389035716, 137.2909299731538]</t>
+  </si>
+  <si>
+    <t>[0.47511373950944674, 0.4751134423268088, 0.5253301676465083, 0.47906434641092077, 0.4843316081731338, 0.4843316792113491, 0.4843314709286411, 0.4843312431946223, 0.4843312175676582]</t>
+  </si>
+  <si>
+    <t>[48.08369052295141, 57.60794249455622, 44.742922020679934, 44.74309932182219, 44.74314110721275, 44.74319100465016, 44.74323054323356, 44.74326712863151, 44.74330340519727, 44.74331059650531]</t>
+  </si>
+  <si>
+    <t>[0.607215930125017, 0.479876433401295, 0.48246923013036636, 0.48246822385648025, 0.4824679219626786, 0.4824675152915056, 0.4824671560608275, 0.48246679449202295, 0.48246640040540617, 0.48246631762823516]</t>
+  </si>
+  <si>
+    <t>[23.023436863386596, 32.61492852649137, 33.26455336371014, 20.165782780249163, 20.165683050843086, 20.165660851285462, 14.086251442931824, 5.1443005135047635, 5.144326167182836, 2.7166254833658114, 2.7166348197682337, 24.946624530866732, 24.946645990082622, 24.946028122070786]</t>
+  </si>
+  <si>
+    <t>[0.30728674079587803, 0.30403515812484405, 0.6998402985007446, 0.7103462908466879, 0.7103522867008366, 0.7103518511514874, 0.7048541426952138, 0.6663051920779491, 0.6663042543958515, 0.6231237688857119, 0.6231229650204984, 0.30482816943051844, 0.30482809660883936, 0.3048320375618714]</t>
+  </si>
+  <si>
+    <t>[29.50511605634323, 14.086210925583245, 14.086205708413134, 20.16571199067794, 20.165674211368696, 20.165654881575588, 20.165644513496126, 20.165639462293797, 20.165641336706607, 20.165649773916115, 20.165662672617582, 20.165677843708874, 20.165678852302335]</t>
+  </si>
+  <si>
+    <t>[0.6901050970562084, 0.7048506053631295, 0.7048536021019364, 0.7103525827013362, 0.7103525094496617, 0.7103523741877047, 0.7103522735635169, 0.7103521831477756, 0.7103521536908493, 0.7103521515283611, 0.7103521775463367, 0.7103522083584058, 0.7103522109266992]</t>
+  </si>
+  <si>
+    <t>[48.28870760231762, 79.68775262050812, 54.880171041994934, 68.77759319346849, 68.77814496480077, 68.778369601068, 68.77854819882197, 68.77867104455039, 68.77873716561376, 65.94699537521988]</t>
+  </si>
+  <si>
+    <t>[0.48752636456874177, 0.5212021522430282, 0.471413352470662, 0.5089267043658862, 0.5089293202171917, 0.5089299747059477, 0.5089301482465544, 0.5089299683828612, 0.5089297195009882, 0.5907870294144754]</t>
+  </si>
+  <si>
+    <t>[26.14005431264673, 31.051152583501715, 31.051140699591354, 31.051066255904406, 24.28238754077017, 28.145917020849954, 145.37898716641237, 145.37894972686192, 145.37892129441434, 145.3788925259655, 145.37883113644818, 145.37874103573148, 145.37859678288802, 145.3784978161046, 145.37837970556689, 145.37810138177196, 145.37785899351476, 145.3778274948653]</t>
+  </si>
+  <si>
+    <t>[0.33809945846911454, 0.32030828210585144, 0.3203083992423233, 0.32030859877355394, 0.31233337646864184, 0.3197744476998003, 0.5349840138746642, 0.5349834573599385, 0.5349830494908395, 0.5349827136194639, 0.5349820874841545, 0.5349813308073523, 0.5349803288796863, 0.5349797127301509, 0.5349790226014692, 0.5349774818867045, 0.5349761860566478, 0.5349760208922465]</t>
+  </si>
+  <si>
+    <t>[24.20022398842141, 23.20710865315844, 23.207033484354767, 18.26475903385247, 18.264749557950548, 12.270524508581389, 12.27052933774947, 12.270537786639716, 12.270546164849693, 12.270555472246178, 12.270566357785569, 12.2705823947406, 12.270594821580554]</t>
+  </si>
+  <si>
+    <t>[0.7012510253021838, 0.6761694668341327, 0.6761706970972126, 0.6259184405269472, 0.6259183050312762, 0.6423403016455617, 0.6423402124365355, 0.6423400951152813, 0.6423400227144027, 0.6423399621218964, 0.6423399066615438, 0.642339830121717, 0.6423397652885351]</t>
+  </si>
+  <si>
+    <t>[27.25458310198026, 12.270615785839896, 26.16231441269247, 26.162314412710526]</t>
+  </si>
+  <si>
+    <t>[0.327798924477822, 0.6423389423688499, 0.3237302010430208, 0.32373020104302735]</t>
+  </si>
+  <si>
+    <t>[42.38199315591938, 23.207140419944714, 12.270562594162941, 12.270550137783848, 12.270546796669459, 12.270547806956994, 12.270550121375056, 12.270556299716393, 12.27056320223903, 12.270571769559188, 12.27058144854474, 12.270595242174583, 12.27060211669749]</t>
+  </si>
+  <si>
+    <t>[0.6966551802795466, 0.676168216970651, 0.6423400756919385, 0.6423405639604591, 0.6423406055314037, 0.6423405589536187, 0.6423405031519924, 0.6423404081645254, 0.6423403209567838, 0.642340231717008, 0.6423401406173038, 0.6423400106914144, 0.6423399438809339]</t>
+  </si>
+  <si>
+    <t>[7.884786665831524, 7.884760686195017, 6.192031203494217, 6.192024999245405, 6.192021897790273, 6.192020547318184, 6.192019893364873, 6.19202064729461, 6.192022221921636, 6.192024539266077, 6.192028345012774, 4.0798717069774755]</t>
+  </si>
+  <si>
+    <t>[0.5746694929411726, 0.5746702332616442, 0.5425540981098924, 0.542553980711541, 0.5425538615100324, 0.542553768379898, 0.5425536467364503, 0.5425535636809691, 0.5425535005815522, 0.5425534538216741, 0.5425534052012232, 0.5663706629969826]</t>
+  </si>
+  <si>
+    <t>[8.395278377940892, 17.065312766002137, 15.595495300585961, 14.067520288266143, 17.148137628794373, 17.14864207220972, 13.536189792793412]</t>
+  </si>
+  <si>
+    <t>[0.7367464728910449, 0.7599191024732035, 0.7630371791494741, 0.7643218416001587, 0.6018287768190745, 0.6018174564662154, 0.599867469848169]</t>
+  </si>
+  <si>
+    <t>[23.27492269475935, 18.532321739597588, 13.415658347681916, 14.74185119047024, 99.20991450840762, 99.20999637218198, 99.21005802554994, 99.21014178991811, 99.21022520385914, 99.21586219589857, 99.21592946080538, 99.21593140532146]</t>
+  </si>
+  <si>
+    <t>[0.678323227413727, 0.7233135293227737, 0.7701955096304919, 0.765848995125225, 0.627366953976316, 0.6273671365349341, 0.6273675008524907, 0.6273682573765693, 0.6273688012857062, 0.6274098841374517, 0.6274101922691604, 0.6274101982037977]</t>
+  </si>
+  <si>
+    <t>[102.83537014113222, 120.26420814354509, 120.26403226414608, 7.807997996136074, 7.414939371821168, 7.188525534647446, 7.188764990137908, 7.074120251757157]</t>
+  </si>
+  <si>
+    <t>[0.47091826495273925, 0.4958306514671076, 0.4958303801644192, 0.5000603088501686, 0.5089421493856465, 0.5121782634869814, 0.5121858321550423, 0.5133576460316801]</t>
+  </si>
+  <si>
+    <t>[23.275387691527797, 13.415828151937287, 13.41583603764493, 99.2154217632527, 99.21551889961525, 99.21558861967668, 99.21567400107921, 99.21573747718337, 99.21581902922938, 99.21590041892699, 99.21592467766101]</t>
+  </si>
+  <si>
+    <t>[0.6783976664991618, 0.7703193782554132, 0.7703233431657646, 0.6274073133351102, 0.6274080050901933, 0.6274086238739348, 0.6274091928586379, 0.6274095357186072, 0.627409887615989, 0.6274101450130632, 0.6274102057990236]</t>
+  </si>
+  <si>
+    <t>[12.379325290047648, 9.751936725760192, 96.96799480016186, 96.96807409131051, 96.96816234093211, 96.96822559068343, 96.96831783740218, 96.96839488978956, 96.96849254180258, 96.96858245016269, 96.96859699945011]</t>
+  </si>
+  <si>
+    <t>[0.638797654451491, 0.6505957516426033, 0.5468708096202802, 0.5468712118219249, 0.5468718686647377, 0.5468722704133087, 0.5468727941878642, 0.5468731842406422, 0.5468736246580811, 0.5468739833217321, 0.5468740375061879]</t>
+  </si>
+  <si>
+    <t>[83.85962244738377, 100.82928391333733, 100.8291698708254, 2.032453397771909, 3.3408433263597277, 3.323586409599423, 3.3236652628749797, 3.3236998363942956, 3.2951310901056075]</t>
+  </si>
+  <si>
+    <t>[0.3696101836796313, 0.4126507519624956, 0.41265054278660596, 0.4619835617270613, 0.4192275716650156, 0.4243596981292349, 0.42436372422170343, 0.42436379679945213, 0.43161149998377873]</t>
+  </si>
+  <si>
+    <t>[66.5478729823842]</t>
+  </si>
+  <si>
+    <t>[0.596761531068438]</t>
+  </si>
+  <si>
+    <t>[15.417296619155747]</t>
+  </si>
+  <si>
+    <t>[0.6510952684426455]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,12 +2822,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -979,13 +2866,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1003,143 +2889,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="7_4comp_5st_all_SP_solvus_true_"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="AX2">
-            <v>-0.41005492399951499</v>
-          </cell>
-          <cell r="AY2">
-            <v>0.81523814208395995</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="AX3">
-            <v>-3.3593367545766499</v>
-          </cell>
-          <cell r="AY3">
-            <v>1.4141445513125299</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AX4">
-            <v>-3.4288026666453901</v>
-          </cell>
-          <cell r="AY4">
-            <v>1.2005852233214001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AX5">
-            <v>-0.76489858393102295</v>
-          </cell>
-          <cell r="AY5">
-            <v>0.81005357327530803</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AX6">
-            <v>-3.5754709976254202</v>
-          </cell>
-          <cell r="AY6">
-            <v>1.1994267200672</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AX7">
-            <v>-3.1187320697774998</v>
-          </cell>
-          <cell r="AY7">
-            <v>0.87367622917508703</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AX8">
-            <v>-4.2175141460744499</v>
-          </cell>
-          <cell r="AY8">
-            <v>1.2147601691891601</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AX9">
-            <v>-3.5243162421944598</v>
-          </cell>
-          <cell r="AY9">
-            <v>0.90821225300734199</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AX10">
-            <v>-4.0383969556351698</v>
-          </cell>
-          <cell r="AY10">
-            <v>1.18958030135105</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AX11">
-            <v>-3.3036609002513302</v>
-          </cell>
-          <cell r="AY11">
-            <v>1.08563745339331</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AX12">
-            <v>-0.31772826545098398</v>
-          </cell>
-          <cell r="AY12">
-            <v>0.447990265678615</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AX13">
-            <v>-3.7347074572080898</v>
-          </cell>
-          <cell r="AY13">
-            <v>0.894276135619678</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AX14">
-            <v>-3.1083192160142401</v>
-          </cell>
-          <cell r="AY14">
-            <v>0.78559432401972695</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AX15">
-            <v>-3.2887829772249701</v>
-          </cell>
-          <cell r="AY15">
-            <v>0.99443008836867297</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AX16">
-            <v>-0.37782683147477097</v>
-          </cell>
-          <cell r="AY16">
-            <v>0.80354309145752301</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1448,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1470,11 +3219,11 @@
       <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="D2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" t="s">
-        <v>276</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1487,11 +3236,11 @@
       <c r="C3" t="s">
         <v>249</v>
       </c>
-      <c r="D3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" t="s">
-        <v>273</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1504,11 +3253,11 @@
       <c r="C4" t="s">
         <v>252</v>
       </c>
-      <c r="D4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" t="s">
-        <v>277</v>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1521,11 +3270,11 @@
       <c r="C5" t="s">
         <v>254</v>
       </c>
-      <c r="D5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" t="s">
-        <v>278</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1538,11 +3287,11 @@
       <c r="C6" t="s">
         <v>250</v>
       </c>
-      <c r="D6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" t="s">
-        <v>271</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1555,11 +3304,11 @@
       <c r="C7" t="s">
         <v>255</v>
       </c>
-      <c r="D7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" t="s">
-        <v>279</v>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,11 +3321,11 @@
       <c r="C8" t="s">
         <v>257</v>
       </c>
-      <c r="D8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" t="s">
-        <v>283</v>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1589,11 +3338,11 @@
       <c r="C9" t="s">
         <v>256</v>
       </c>
-      <c r="D9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" t="s">
-        <v>275</v>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1606,11 +3355,11 @@
       <c r="C10" t="s">
         <v>251</v>
       </c>
-      <c r="D10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" t="s">
-        <v>272</v>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1623,1359 +3372,4844 @@
       <c r="C11" t="s">
         <v>258</v>
       </c>
-      <c r="D11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" t="s">
-        <v>285</v>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" t="s">
-        <v>273</v>
+        <v>513</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>514</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" t="s">
-        <v>284</v>
+        <v>515</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" t="s">
-        <v>280</v>
+        <v>517</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>518</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E15" t="s">
-        <v>277</v>
+        <v>519</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>520</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" t="s">
-        <v>278</v>
+        <v>521</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" t="s">
-        <v>271</v>
+        <v>523</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" t="s">
-        <v>279</v>
+        <v>525</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>526</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" t="s">
-        <v>283</v>
+        <v>527</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>528</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" t="s">
-        <v>275</v>
+        <v>529</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>530</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" t="s">
-        <v>285</v>
+        <v>531</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>532</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" t="s">
-        <v>284</v>
+        <v>533</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" t="s">
-        <v>277</v>
+        <v>535</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>536</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" t="s">
-        <v>278</v>
+        <v>537</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>538</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E25" t="s">
-        <v>271</v>
+        <v>539</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" t="s">
-        <v>273</v>
-      </c>
-      <c r="E26" t="s">
-        <v>279</v>
+        <v>203</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" t="s">
-        <v>281</v>
+        <v>206</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E28" t="s">
-        <v>283</v>
+        <v>208</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E29" t="s">
-        <v>275</v>
+        <v>210</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" t="s">
-        <v>272</v>
+        <v>211</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" t="s">
-        <v>274</v>
+        <v>204</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" t="s">
-        <v>285</v>
+        <v>209</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" t="s">
-        <v>277</v>
+        <v>212</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" t="s">
-        <v>284</v>
-      </c>
-      <c r="E34" t="s">
-        <v>278</v>
+        <v>205</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" t="s">
-        <v>271</v>
+        <v>207</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" t="s">
-        <v>279</v>
+        <v>541</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>542</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" t="s">
-        <v>284</v>
-      </c>
-      <c r="E37" t="s">
-        <v>283</v>
+        <v>543</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>544</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" t="s">
-        <v>275</v>
+        <v>545</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>546</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" t="s">
-        <v>272</v>
+        <v>547</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>548</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" t="s">
-        <v>274</v>
+        <v>549</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>550</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E41" t="s">
-        <v>285</v>
+        <v>551</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>552</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
-      </c>
-      <c r="D42" t="s">
-        <v>280</v>
-      </c>
-      <c r="E42" t="s">
-        <v>277</v>
+        <v>553</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" t="s">
-        <v>278</v>
+        <v>555</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E44" t="s">
-        <v>271</v>
+        <v>557</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" t="s">
-        <v>279</v>
+        <v>559</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>560</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" t="s">
-        <v>280</v>
-      </c>
-      <c r="E46" t="s">
-        <v>281</v>
+        <v>561</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" t="s">
-        <v>280</v>
-      </c>
-      <c r="E47" t="s">
-        <v>283</v>
+        <v>563</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>564</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" t="s">
-        <v>280</v>
-      </c>
-      <c r="E48" t="s">
-        <v>275</v>
+        <v>565</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>566</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" t="s">
-        <v>280</v>
-      </c>
-      <c r="E49" t="s">
-        <v>274</v>
+        <v>567</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" t="s">
-        <v>285</v>
+        <v>189</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
-      </c>
-      <c r="D51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" t="s">
-        <v>278</v>
+        <v>194</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" t="s">
-        <v>277</v>
-      </c>
-      <c r="E52" t="s">
-        <v>271</v>
+        <v>192</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" t="s">
-        <v>277</v>
-      </c>
-      <c r="E53" t="s">
-        <v>279</v>
+        <v>188</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" t="s">
-        <v>277</v>
-      </c>
-      <c r="E54" t="s">
-        <v>281</v>
+        <v>195</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" t="s">
-        <v>277</v>
-      </c>
-      <c r="E55" t="s">
-        <v>283</v>
+        <v>196</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" t="s">
-        <v>275</v>
+        <v>193</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" t="s">
-        <v>272</v>
+        <v>191</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" t="s">
-        <v>277</v>
-      </c>
-      <c r="E58" t="s">
-        <v>274</v>
+        <v>190</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" t="s">
-        <v>285</v>
+        <v>198</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" t="s">
-        <v>271</v>
+        <v>197</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>568</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61" t="s">
-        <v>278</v>
-      </c>
-      <c r="E61" t="s">
-        <v>279</v>
+        <v>569</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>570</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" t="s">
-        <v>278</v>
-      </c>
-      <c r="E62" t="s">
-        <v>281</v>
+        <v>571</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>572</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" t="s">
-        <v>278</v>
-      </c>
-      <c r="E63" t="s">
-        <v>283</v>
+        <v>573</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>338</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>574</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
-      </c>
-      <c r="D64" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" t="s">
-        <v>275</v>
+        <v>575</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" t="s">
-        <v>278</v>
-      </c>
-      <c r="E65" t="s">
-        <v>272</v>
+        <v>577</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>578</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" t="s">
-        <v>278</v>
-      </c>
-      <c r="E66" t="s">
-        <v>274</v>
+        <v>579</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>580</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" t="s">
-        <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>285</v>
+        <v>581</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>582</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" t="s">
-        <v>279</v>
+        <v>583</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>584</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E69" t="s">
-        <v>272</v>
+        <v>585</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>586</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" t="s">
-        <v>271</v>
-      </c>
-      <c r="E70" t="s">
-        <v>274</v>
+        <v>587</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>588</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" t="s">
-        <v>271</v>
-      </c>
-      <c r="E71" t="s">
-        <v>285</v>
+        <v>589</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>346</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>590</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
-      </c>
-      <c r="D72" t="s">
-        <v>279</v>
-      </c>
-      <c r="E72" t="s">
-        <v>281</v>
+        <v>591</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>592</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" t="s">
-        <v>279</v>
-      </c>
-      <c r="E73" t="s">
-        <v>283</v>
+        <v>593</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" t="s">
-        <v>279</v>
-      </c>
-      <c r="E74" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" t="s">
-        <v>279</v>
-      </c>
-      <c r="E75" t="s">
-        <v>274</v>
+        <v>266</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" t="s">
-        <v>279</v>
-      </c>
-      <c r="E76" t="s">
-        <v>285</v>
+        <v>262</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" t="s">
-        <v>281</v>
-      </c>
-      <c r="E77" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" t="s">
-        <v>281</v>
-      </c>
-      <c r="E78" t="s">
-        <v>275</v>
+        <v>267</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" t="s">
-        <v>281</v>
-      </c>
-      <c r="E79" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" t="s">
-        <v>274</v>
+        <v>264</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>247</v>
-      </c>
-      <c r="D81" t="s">
-        <v>281</v>
-      </c>
-      <c r="E81" t="s">
-        <v>285</v>
+        <v>263</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
-      </c>
-      <c r="D82" t="s">
-        <v>283</v>
-      </c>
-      <c r="E82" t="s">
-        <v>275</v>
+        <v>268</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>594</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" t="s">
-        <v>274</v>
+        <v>595</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>596</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" t="s">
-        <v>285</v>
+        <v>597</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>598</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" t="s">
-        <v>275</v>
-      </c>
-      <c r="E85" t="s">
-        <v>272</v>
+        <v>599</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>600</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" t="s">
-        <v>275</v>
-      </c>
-      <c r="E86" t="s">
-        <v>274</v>
+        <v>601</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>602</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" t="s">
-        <v>275</v>
-      </c>
-      <c r="E87" t="s">
-        <v>285</v>
+        <v>603</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>604</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" t="s">
-        <v>272</v>
-      </c>
-      <c r="E88" t="s">
-        <v>274</v>
+        <v>605</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>606</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" t="s">
-        <v>272</v>
-      </c>
-      <c r="E89" t="s">
-        <v>285</v>
+        <v>607</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" t="s">
+        <v>608</v>
+      </c>
+      <c r="C90" t="s">
+        <v>609</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B91" t="s">
+        <v>610</v>
+      </c>
+      <c r="C91" t="s">
+        <v>611</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" t="s">
+        <v>612</v>
+      </c>
+      <c r="C92" t="s">
+        <v>613</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" t="s">
+        <v>614</v>
+      </c>
+      <c r="C93" t="s">
+        <v>615</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>359</v>
+      </c>
+      <c r="B94" t="s">
+        <v>616</v>
+      </c>
+      <c r="C94" t="s">
+        <v>617</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" t="s">
+        <v>618</v>
+      </c>
+      <c r="C95" t="s">
+        <v>619</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>361</v>
+      </c>
+      <c r="B96" t="s">
+        <v>620</v>
+      </c>
+      <c r="C96" t="s">
+        <v>621</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>362</v>
+      </c>
+      <c r="B97" t="s">
+        <v>622</v>
+      </c>
+      <c r="C97" t="s">
+        <v>623</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>363</v>
+      </c>
+      <c r="B107" t="s">
+        <v>624</v>
+      </c>
+      <c r="C107" t="s">
+        <v>625</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" t="s">
+        <v>626</v>
+      </c>
+      <c r="C108" t="s">
+        <v>627</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" t="s">
+        <v>628</v>
+      </c>
+      <c r="C109" t="s">
+        <v>629</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>366</v>
+      </c>
+      <c r="B110" t="s">
+        <v>630</v>
+      </c>
+      <c r="C110" t="s">
+        <v>631</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>367</v>
+      </c>
+      <c r="B111" t="s">
+        <v>632</v>
+      </c>
+      <c r="C111" t="s">
+        <v>633</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
         <v>21</v>
       </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" t="s">
+        <v>634</v>
+      </c>
+      <c r="C112" t="s">
+        <v>635</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>369</v>
+      </c>
+      <c r="B113" t="s">
+        <v>636</v>
+      </c>
+      <c r="C113" t="s">
+        <v>637</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>370</v>
+      </c>
+      <c r="B114" t="s">
+        <v>638</v>
+      </c>
+      <c r="C114" t="s">
+        <v>639</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" t="s">
+        <v>640</v>
+      </c>
+      <c r="C115" t="s">
+        <v>641</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" t="s">
+        <v>642</v>
+      </c>
+      <c r="C116" t="s">
+        <v>643</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>373</v>
+      </c>
+      <c r="B117" t="s">
+        <v>644</v>
+      </c>
+      <c r="C117" t="s">
+        <v>645</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" t="s">
+        <v>646</v>
+      </c>
+      <c r="C118" t="s">
+        <v>647</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>375</v>
+      </c>
+      <c r="B119" t="s">
+        <v>648</v>
+      </c>
+      <c r="C119" t="s">
+        <v>649</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>376</v>
+      </c>
+      <c r="B120" t="s">
+        <v>650</v>
+      </c>
+      <c r="C120" t="s">
+        <v>651</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>220</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>215</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>216</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>377</v>
+      </c>
+      <c r="B130" t="s">
+        <v>652</v>
+      </c>
+      <c r="C130" t="s">
+        <v>653</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>378</v>
+      </c>
+      <c r="B131" t="s">
+        <v>654</v>
+      </c>
+      <c r="C131" t="s">
+        <v>655</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>379</v>
+      </c>
+      <c r="B132" t="s">
+        <v>656</v>
+      </c>
+      <c r="C132" t="s">
+        <v>657</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>380</v>
+      </c>
+      <c r="B133" t="s">
+        <v>658</v>
+      </c>
+      <c r="C133" t="s">
+        <v>659</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>381</v>
+      </c>
+      <c r="B134" t="s">
+        <v>660</v>
+      </c>
+      <c r="C134" t="s">
+        <v>661</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>382</v>
+      </c>
+      <c r="B135" t="s">
+        <v>662</v>
+      </c>
+      <c r="C135" t="s">
+        <v>663</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>383</v>
+      </c>
+      <c r="B136" t="s">
+        <v>664</v>
+      </c>
+      <c r="C136" t="s">
+        <v>665</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>384</v>
+      </c>
+      <c r="B137" t="s">
+        <v>666</v>
+      </c>
+      <c r="C137" t="s">
+        <v>667</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>385</v>
+      </c>
+      <c r="B138" t="s">
+        <v>668</v>
+      </c>
+      <c r="C138" t="s">
+        <v>669</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>386</v>
+      </c>
+      <c r="B139" t="s">
+        <v>670</v>
+      </c>
+      <c r="C139" t="s">
+        <v>671</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>387</v>
+      </c>
+      <c r="B140" t="s">
+        <v>672</v>
+      </c>
+      <c r="C140" t="s">
+        <v>673</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" t="s">
+        <v>674</v>
+      </c>
+      <c r="C141" t="s">
+        <v>675</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" t="s">
+        <v>676</v>
+      </c>
+      <c r="C142" t="s">
+        <v>677</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>390</v>
+      </c>
+      <c r="B143" t="s">
+        <v>678</v>
+      </c>
+      <c r="C143" t="s">
+        <v>679</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146">
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" t="s">
+        <v>229</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" t="s">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149">
+        <v>7</v>
+      </c>
+      <c r="E149">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" t="s">
+        <v>135</v>
+      </c>
+      <c r="C150" t="s">
+        <v>224</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" t="s">
+        <v>226</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>391</v>
+      </c>
+      <c r="B152" t="s">
+        <v>680</v>
+      </c>
+      <c r="C152" t="s">
+        <v>681</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>392</v>
+      </c>
+      <c r="B153" t="s">
+        <v>682</v>
+      </c>
+      <c r="C153" t="s">
+        <v>683</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>393</v>
+      </c>
+      <c r="B154" t="s">
+        <v>684</v>
+      </c>
+      <c r="C154" t="s">
+        <v>685</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>394</v>
+      </c>
+      <c r="B155" t="s">
+        <v>686</v>
+      </c>
+      <c r="C155" t="s">
+        <v>687</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>395</v>
+      </c>
+      <c r="B156" t="s">
+        <v>688</v>
+      </c>
+      <c r="C156" t="s">
+        <v>689</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+      <c r="E156">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>396</v>
+      </c>
+      <c r="B157" t="s">
+        <v>690</v>
+      </c>
+      <c r="C157" t="s">
+        <v>691</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>397</v>
+      </c>
+      <c r="B158" t="s">
+        <v>692</v>
+      </c>
+      <c r="C158" t="s">
+        <v>693</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>398</v>
+      </c>
+      <c r="B159" t="s">
+        <v>694</v>
+      </c>
+      <c r="C159" t="s">
+        <v>695</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>399</v>
+      </c>
+      <c r="B160" t="s">
+        <v>696</v>
+      </c>
+      <c r="C160" t="s">
+        <v>697</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>400</v>
+      </c>
+      <c r="B161" t="s">
+        <v>698</v>
+      </c>
+      <c r="C161" t="s">
+        <v>699</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162" t="s">
+        <v>185</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" t="s">
+        <v>184</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+      <c r="E163">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" t="s">
+        <v>182</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+      <c r="E164">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" t="s">
+        <v>183</v>
+      </c>
+      <c r="D165">
+        <v>8</v>
+      </c>
+      <c r="E165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>401</v>
+      </c>
+      <c r="B166" t="s">
+        <v>700</v>
+      </c>
+      <c r="C166" t="s">
+        <v>701</v>
+      </c>
+      <c r="D166">
+        <v>8</v>
+      </c>
+      <c r="E166">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>402</v>
+      </c>
+      <c r="B167" t="s">
+        <v>702</v>
+      </c>
+      <c r="C167" t="s">
+        <v>703</v>
+      </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>403</v>
+      </c>
+      <c r="B168" t="s">
+        <v>704</v>
+      </c>
+      <c r="C168" t="s">
+        <v>705</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>404</v>
+      </c>
+      <c r="B169" t="s">
+        <v>706</v>
+      </c>
+      <c r="C169" t="s">
+        <v>707</v>
+      </c>
+      <c r="D169">
+        <v>8</v>
+      </c>
+      <c r="E169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" t="s">
+        <v>708</v>
+      </c>
+      <c r="C170" t="s">
+        <v>709</v>
+      </c>
+      <c r="D170">
+        <v>8</v>
+      </c>
+      <c r="E170">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>406</v>
+      </c>
+      <c r="B171" t="s">
+        <v>710</v>
+      </c>
+      <c r="C171" t="s">
+        <v>711</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>407</v>
+      </c>
+      <c r="B172" t="s">
+        <v>712</v>
+      </c>
+      <c r="C172" t="s">
+        <v>713</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>408</v>
+      </c>
+      <c r="B173" t="s">
+        <v>714</v>
+      </c>
+      <c r="C173" t="s">
+        <v>715</v>
+      </c>
+      <c r="D173">
+        <v>8</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>409</v>
+      </c>
+      <c r="B174" t="s">
+        <v>716</v>
+      </c>
+      <c r="C174" t="s">
+        <v>717</v>
+      </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>410</v>
+      </c>
+      <c r="B175" t="s">
+        <v>718</v>
+      </c>
+      <c r="C175" t="s">
+        <v>719</v>
+      </c>
+      <c r="D175">
+        <v>8</v>
+      </c>
+      <c r="E175">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>411</v>
+      </c>
+      <c r="B176" t="s">
+        <v>720</v>
+      </c>
+      <c r="C176" t="s">
+        <v>721</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>412</v>
+      </c>
+      <c r="B177" t="s">
+        <v>722</v>
+      </c>
+      <c r="C177" t="s">
+        <v>723</v>
+      </c>
+      <c r="D177">
+        <v>8</v>
+      </c>
+      <c r="E177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>413</v>
+      </c>
+      <c r="B178" t="s">
+        <v>724</v>
+      </c>
+      <c r="C178" t="s">
+        <v>725</v>
+      </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
+      <c r="E178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>414</v>
+      </c>
+      <c r="B179" t="s">
+        <v>726</v>
+      </c>
+      <c r="C179" t="s">
+        <v>727</v>
+      </c>
+      <c r="D179">
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>234</v>
+      </c>
+      <c r="D180">
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" t="s">
+        <v>231</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" t="s">
+        <v>230</v>
+      </c>
+      <c r="D182">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" t="s">
+        <v>232</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" t="s">
+        <v>144</v>
+      </c>
+      <c r="C184" t="s">
+        <v>233</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>415</v>
+      </c>
+      <c r="B185" t="s">
+        <v>728</v>
+      </c>
+      <c r="C185" t="s">
+        <v>729</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>416</v>
+      </c>
+      <c r="B186" t="s">
+        <v>730</v>
+      </c>
+      <c r="C186" t="s">
+        <v>731</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>417</v>
+      </c>
+      <c r="B187" t="s">
+        <v>732</v>
+      </c>
+      <c r="C187" t="s">
+        <v>733</v>
+      </c>
+      <c r="D187">
+        <v>9</v>
+      </c>
+      <c r="E187">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>418</v>
+      </c>
+      <c r="B188" t="s">
+        <v>734</v>
+      </c>
+      <c r="C188" t="s">
+        <v>735</v>
+      </c>
+      <c r="D188">
+        <v>9</v>
+      </c>
+      <c r="E188">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" t="s">
+        <v>736</v>
+      </c>
+      <c r="C189" t="s">
+        <v>737</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>420</v>
+      </c>
+      <c r="B190" t="s">
+        <v>738</v>
+      </c>
+      <c r="C190" t="s">
+        <v>739</v>
+      </c>
+      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>421</v>
+      </c>
+      <c r="B191" t="s">
+        <v>740</v>
+      </c>
+      <c r="C191" t="s">
+        <v>741</v>
+      </c>
+      <c r="D191">
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>422</v>
+      </c>
+      <c r="B192" t="s">
+        <v>742</v>
+      </c>
+      <c r="C192" t="s">
+        <v>743</v>
+      </c>
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>423</v>
+      </c>
+      <c r="B193" t="s">
+        <v>744</v>
+      </c>
+      <c r="C193" t="s">
+        <v>745</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>424</v>
+      </c>
+      <c r="B194" t="s">
+        <v>746</v>
+      </c>
+      <c r="C194" t="s">
+        <v>747</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>425</v>
+      </c>
+      <c r="B195" t="s">
+        <v>748</v>
+      </c>
+      <c r="C195" t="s">
+        <v>749</v>
+      </c>
+      <c r="D195">
+        <v>9</v>
+      </c>
+      <c r="E195">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>426</v>
+      </c>
+      <c r="B196" t="s">
+        <v>750</v>
+      </c>
+      <c r="C196" t="s">
+        <v>751</v>
+      </c>
+      <c r="D196">
+        <v>9</v>
+      </c>
+      <c r="E196">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>427</v>
+      </c>
+      <c r="B197" t="s">
+        <v>752</v>
+      </c>
+      <c r="C197" t="s">
+        <v>753</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>428</v>
+      </c>
+      <c r="B198" t="s">
+        <v>754</v>
+      </c>
+      <c r="C198" t="s">
+        <v>755</v>
+      </c>
+      <c r="D198">
+        <v>9</v>
+      </c>
+      <c r="E198">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>70</v>
+      </c>
+      <c r="B199" t="s">
+        <v>159</v>
+      </c>
+      <c r="C199" t="s">
+        <v>248</v>
+      </c>
+      <c r="D199">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>68</v>
+      </c>
+      <c r="B200" t="s">
+        <v>157</v>
+      </c>
+      <c r="C200" t="s">
+        <v>246</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" t="s">
+        <v>155</v>
+      </c>
+      <c r="C201" t="s">
+        <v>244</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>67</v>
+      </c>
+      <c r="B202" t="s">
+        <v>156</v>
+      </c>
+      <c r="C202" t="s">
+        <v>245</v>
+      </c>
+      <c r="D202">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>69</v>
+      </c>
+      <c r="B203" t="s">
+        <v>158</v>
+      </c>
+      <c r="C203" t="s">
+        <v>247</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>429</v>
+      </c>
+      <c r="B204" t="s">
+        <v>756</v>
+      </c>
+      <c r="C204" t="s">
+        <v>757</v>
+      </c>
+      <c r="D204">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>430</v>
+      </c>
+      <c r="B205" t="s">
+        <v>758</v>
+      </c>
+      <c r="C205" t="s">
+        <v>759</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>431</v>
+      </c>
+      <c r="B206" t="s">
+        <v>760</v>
+      </c>
+      <c r="C206" t="s">
+        <v>761</v>
+      </c>
+      <c r="D206">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>432</v>
+      </c>
+      <c r="B207" t="s">
+        <v>762</v>
+      </c>
+      <c r="C207" t="s">
+        <v>763</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>433</v>
+      </c>
+      <c r="B208" t="s">
+        <v>764</v>
+      </c>
+      <c r="C208" t="s">
+        <v>765</v>
+      </c>
+      <c r="D208">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>434</v>
+      </c>
+      <c r="B209" t="s">
+        <v>766</v>
+      </c>
+      <c r="C209" t="s">
+        <v>767</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>435</v>
+      </c>
+      <c r="B210" t="s">
+        <v>768</v>
+      </c>
+      <c r="C210" t="s">
+        <v>769</v>
+      </c>
+      <c r="D210">
+        <v>10</v>
+      </c>
+      <c r="E210">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>436</v>
+      </c>
+      <c r="B211" t="s">
+        <v>770</v>
+      </c>
+      <c r="C211" t="s">
+        <v>771</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>437</v>
+      </c>
+      <c r="B212" t="s">
+        <v>772</v>
+      </c>
+      <c r="C212" t="s">
+        <v>773</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>438</v>
+      </c>
+      <c r="B213" t="s">
+        <v>774</v>
+      </c>
+      <c r="C213" t="s">
+        <v>775</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>439</v>
+      </c>
+      <c r="B214" t="s">
+        <v>776</v>
+      </c>
+      <c r="C214" t="s">
+        <v>777</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>440</v>
+      </c>
+      <c r="B215" t="s">
+        <v>778</v>
+      </c>
+      <c r="C215" t="s">
+        <v>779</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>441</v>
+      </c>
+      <c r="B216" t="s">
+        <v>780</v>
+      </c>
+      <c r="C216" t="s">
+        <v>781</v>
+      </c>
+      <c r="D216">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>442</v>
+      </c>
+      <c r="B217" t="s">
+        <v>782</v>
+      </c>
+      <c r="C217" t="s">
+        <v>783</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>443</v>
+      </c>
+      <c r="B218" t="s">
+        <v>784</v>
+      </c>
+      <c r="C218" t="s">
+        <v>785</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219" t="s">
+        <v>786</v>
+      </c>
+      <c r="C219" t="s">
+        <v>787</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>82</v>
+      </c>
+      <c r="B220" t="s">
+        <v>171</v>
+      </c>
+      <c r="C220" t="s">
+        <v>260</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
+      </c>
+      <c r="E220">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221" t="s">
+        <v>170</v>
+      </c>
+      <c r="C221" t="s">
+        <v>259</v>
+      </c>
+      <c r="D221">
+        <v>11</v>
+      </c>
+      <c r="E221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>83</v>
+      </c>
+      <c r="B222" t="s">
+        <v>172</v>
+      </c>
+      <c r="C222" t="s">
+        <v>261</v>
+      </c>
+      <c r="D222">
+        <v>11</v>
+      </c>
+      <c r="E222">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>788</v>
+      </c>
+      <c r="C223" t="s">
+        <v>789</v>
+      </c>
+      <c r="D223">
+        <v>11</v>
+      </c>
+      <c r="E223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>790</v>
+      </c>
+      <c r="C224" t="s">
+        <v>791</v>
+      </c>
+      <c r="D224">
+        <v>11</v>
+      </c>
+      <c r="E224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>447</v>
+      </c>
+      <c r="B225" t="s">
+        <v>792</v>
+      </c>
+      <c r="C225" t="s">
+        <v>793</v>
+      </c>
+      <c r="D225">
+        <v>11</v>
+      </c>
+      <c r="E225">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" t="s">
+        <v>794</v>
+      </c>
+      <c r="C226" t="s">
+        <v>795</v>
+      </c>
+      <c r="D226">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" t="s">
+        <v>796</v>
+      </c>
+      <c r="C227" t="s">
+        <v>797</v>
+      </c>
+      <c r="D227">
+        <v>11</v>
+      </c>
+      <c r="E227">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" t="s">
+        <v>798</v>
+      </c>
+      <c r="C228" t="s">
+        <v>799</v>
+      </c>
+      <c r="D228">
+        <v>11</v>
+      </c>
+      <c r="E228">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>451</v>
+      </c>
+      <c r="B229" t="s">
+        <v>800</v>
+      </c>
+      <c r="C229" t="s">
+        <v>801</v>
+      </c>
+      <c r="D229">
+        <v>11</v>
+      </c>
+      <c r="E229">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>452</v>
+      </c>
+      <c r="B230" t="s">
+        <v>802</v>
+      </c>
+      <c r="C230" t="s">
+        <v>803</v>
+      </c>
+      <c r="D230">
+        <v>11</v>
+      </c>
+      <c r="E230">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
+        <v>804</v>
+      </c>
+      <c r="C231" t="s">
+        <v>805</v>
+      </c>
+      <c r="D231">
+        <v>11</v>
+      </c>
+      <c r="E231">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>454</v>
+      </c>
+      <c r="B232" t="s">
+        <v>806</v>
+      </c>
+      <c r="C232" t="s">
+        <v>807</v>
+      </c>
+      <c r="D232">
+        <v>11</v>
+      </c>
+      <c r="E232">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>455</v>
+      </c>
+      <c r="B233" t="s">
+        <v>808</v>
+      </c>
+      <c r="C233" t="s">
+        <v>809</v>
+      </c>
+      <c r="D233">
+        <v>11</v>
+      </c>
+      <c r="E233">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>456</v>
+      </c>
+      <c r="B234" t="s">
+        <v>810</v>
+      </c>
+      <c r="C234" t="s">
+        <v>811</v>
+      </c>
+      <c r="D234">
+        <v>11</v>
+      </c>
+      <c r="E234">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>457</v>
+      </c>
+      <c r="B235" t="s">
+        <v>812</v>
+      </c>
+      <c r="C235" t="s">
+        <v>813</v>
+      </c>
+      <c r="D235">
+        <v>11</v>
+      </c>
+      <c r="E235">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>458</v>
+      </c>
+      <c r="B236" t="s">
+        <v>814</v>
+      </c>
+      <c r="C236" t="s">
+        <v>815</v>
+      </c>
+      <c r="D236">
+        <v>11</v>
+      </c>
+      <c r="E236">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>459</v>
+      </c>
+      <c r="B237" t="s">
+        <v>816</v>
+      </c>
+      <c r="C237" t="s">
+        <v>817</v>
+      </c>
+      <c r="D237">
+        <v>11</v>
+      </c>
+      <c r="E237">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" t="s">
+        <v>201</v>
+      </c>
+      <c r="D238">
+        <v>12</v>
+      </c>
+      <c r="E238">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" t="s">
+        <v>111</v>
+      </c>
+      <c r="C239" t="s">
+        <v>200</v>
+      </c>
+      <c r="D239">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" t="s">
+        <v>113</v>
+      </c>
+      <c r="C240" t="s">
+        <v>202</v>
+      </c>
+      <c r="D240">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>460</v>
+      </c>
+      <c r="B241" t="s">
+        <v>818</v>
+      </c>
+      <c r="C241" t="s">
+        <v>819</v>
+      </c>
+      <c r="D241">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>461</v>
+      </c>
+      <c r="B242" t="s">
+        <v>820</v>
+      </c>
+      <c r="C242" t="s">
+        <v>821</v>
+      </c>
+      <c r="D242">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>462</v>
+      </c>
+      <c r="B243" t="s">
+        <v>822</v>
+      </c>
+      <c r="C243" t="s">
+        <v>823</v>
+      </c>
+      <c r="D243">
+        <v>12</v>
+      </c>
+      <c r="E243">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>463</v>
+      </c>
+      <c r="B244" t="s">
+        <v>824</v>
+      </c>
+      <c r="C244" t="s">
+        <v>825</v>
+      </c>
+      <c r="D244">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>464</v>
+      </c>
+      <c r="B245" t="s">
+        <v>826</v>
+      </c>
+      <c r="C245" t="s">
+        <v>827</v>
+      </c>
+      <c r="D245">
+        <v>12</v>
+      </c>
+      <c r="E245">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>465</v>
+      </c>
+      <c r="B246" t="s">
+        <v>828</v>
+      </c>
+      <c r="C246" t="s">
+        <v>829</v>
+      </c>
+      <c r="D246">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>466</v>
+      </c>
+      <c r="B247" t="s">
+        <v>830</v>
+      </c>
+      <c r="C247" t="s">
+        <v>831</v>
+      </c>
+      <c r="D247">
+        <v>12</v>
+      </c>
+      <c r="E247">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>467</v>
+      </c>
+      <c r="B248" t="s">
+        <v>832</v>
+      </c>
+      <c r="C248" t="s">
+        <v>833</v>
+      </c>
+      <c r="D248">
+        <v>12</v>
+      </c>
+      <c r="E248">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>468</v>
+      </c>
+      <c r="B249" t="s">
+        <v>834</v>
+      </c>
+      <c r="C249" t="s">
+        <v>835</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>469</v>
+      </c>
+      <c r="B250" t="s">
+        <v>836</v>
+      </c>
+      <c r="C250" t="s">
+        <v>837</v>
+      </c>
+      <c r="D250">
+        <v>12</v>
+      </c>
+      <c r="E250">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>470</v>
+      </c>
+      <c r="B251" t="s">
+        <v>838</v>
+      </c>
+      <c r="C251" t="s">
+        <v>839</v>
+      </c>
+      <c r="D251">
+        <v>12</v>
+      </c>
+      <c r="E251">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>471</v>
+      </c>
+      <c r="B252" t="s">
+        <v>840</v>
+      </c>
+      <c r="C252" t="s">
+        <v>841</v>
+      </c>
+      <c r="D252">
+        <v>12</v>
+      </c>
+      <c r="E252">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>472</v>
+      </c>
+      <c r="B253" t="s">
+        <v>842</v>
+      </c>
+      <c r="C253" t="s">
+        <v>843</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" t="s">
+        <v>97</v>
+      </c>
+      <c r="C254" t="s">
+        <v>186</v>
+      </c>
+      <c r="D254">
+        <v>13</v>
+      </c>
+      <c r="E254">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" t="s">
+        <v>98</v>
+      </c>
+      <c r="C255" t="s">
+        <v>187</v>
+      </c>
+      <c r="D255">
+        <v>13</v>
+      </c>
+      <c r="E255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>473</v>
+      </c>
+      <c r="B256" t="s">
+        <v>844</v>
+      </c>
+      <c r="C256" t="s">
+        <v>845</v>
+      </c>
+      <c r="D256">
+        <v>13</v>
+      </c>
+      <c r="E256">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>474</v>
+      </c>
+      <c r="B257" t="s">
+        <v>846</v>
+      </c>
+      <c r="C257" t="s">
+        <v>847</v>
+      </c>
+      <c r="D257">
+        <v>13</v>
+      </c>
+      <c r="E257">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>475</v>
+      </c>
+      <c r="B258" t="s">
+        <v>848</v>
+      </c>
+      <c r="C258" t="s">
+        <v>849</v>
+      </c>
+      <c r="D258">
+        <v>13</v>
+      </c>
+      <c r="E258">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>476</v>
+      </c>
+      <c r="B259" t="s">
+        <v>850</v>
+      </c>
+      <c r="C259" t="s">
+        <v>851</v>
+      </c>
+      <c r="D259">
+        <v>13</v>
+      </c>
+      <c r="E259">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>477</v>
+      </c>
+      <c r="B260" t="s">
+        <v>852</v>
+      </c>
+      <c r="C260" t="s">
+        <v>853</v>
+      </c>
+      <c r="D260">
+        <v>13</v>
+      </c>
+      <c r="E260">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>478</v>
+      </c>
+      <c r="B261" t="s">
+        <v>854</v>
+      </c>
+      <c r="C261" t="s">
+        <v>855</v>
+      </c>
+      <c r="D261">
+        <v>13</v>
+      </c>
+      <c r="E261">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>479</v>
+      </c>
+      <c r="B262" t="s">
+        <v>856</v>
+      </c>
+      <c r="C262" t="s">
+        <v>857</v>
+      </c>
+      <c r="D262">
+        <v>13</v>
+      </c>
+      <c r="E262">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>480</v>
+      </c>
+      <c r="B263" t="s">
+        <v>858</v>
+      </c>
+      <c r="C263" t="s">
+        <v>859</v>
+      </c>
+      <c r="D263">
+        <v>13</v>
+      </c>
+      <c r="E263">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>481</v>
+      </c>
+      <c r="B264" t="s">
+        <v>860</v>
+      </c>
+      <c r="C264" t="s">
+        <v>861</v>
+      </c>
+      <c r="D264">
+        <v>13</v>
+      </c>
+      <c r="E264">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>482</v>
+      </c>
+      <c r="B265" t="s">
+        <v>862</v>
+      </c>
+      <c r="C265" t="s">
+        <v>863</v>
+      </c>
+      <c r="D265">
+        <v>13</v>
+      </c>
+      <c r="E265">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>483</v>
+      </c>
+      <c r="B266" t="s">
+        <v>864</v>
+      </c>
+      <c r="C266" t="s">
+        <v>865</v>
+      </c>
+      <c r="D266">
+        <v>13</v>
+      </c>
+      <c r="E266">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>484</v>
+      </c>
+      <c r="B267" t="s">
+        <v>866</v>
+      </c>
+      <c r="C267" t="s">
+        <v>867</v>
+      </c>
+      <c r="D267">
+        <v>13</v>
+      </c>
+      <c r="E267">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>485</v>
+      </c>
+      <c r="B268" t="s">
+        <v>868</v>
+      </c>
+      <c r="C268" t="s">
+        <v>869</v>
+      </c>
+      <c r="D268">
+        <v>13</v>
+      </c>
+      <c r="E268">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>486</v>
+      </c>
+      <c r="B269" t="s">
+        <v>870</v>
+      </c>
+      <c r="C269" t="s">
+        <v>871</v>
+      </c>
+      <c r="D269">
+        <v>13</v>
+      </c>
+      <c r="E269">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>487</v>
+      </c>
+      <c r="B270" t="s">
+        <v>872</v>
+      </c>
+      <c r="C270" t="s">
+        <v>873</v>
+      </c>
+      <c r="D270">
+        <v>13</v>
+      </c>
+      <c r="E270">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>488</v>
+      </c>
+      <c r="B271" t="s">
+        <v>874</v>
+      </c>
+      <c r="C271" t="s">
+        <v>875</v>
+      </c>
+      <c r="D271">
+        <v>13</v>
+      </c>
+      <c r="E271">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>21</v>
+      </c>
+      <c r="B272" t="s">
         <v>110</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C272" t="s">
         <v>199</v>
       </c>
-      <c r="D90" t="s">
-        <v>274</v>
-      </c>
-      <c r="E90" t="s">
-        <v>285</v>
+      <c r="D272">
+        <v>14</v>
+      </c>
+      <c r="E272">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>489</v>
+      </c>
+      <c r="B273" t="s">
+        <v>876</v>
+      </c>
+      <c r="C273" t="s">
+        <v>877</v>
+      </c>
+      <c r="D273">
+        <v>14</v>
+      </c>
+      <c r="E273">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>490</v>
+      </c>
+      <c r="B274" t="s">
+        <v>878</v>
+      </c>
+      <c r="C274" t="s">
+        <v>879</v>
+      </c>
+      <c r="D274">
+        <v>14</v>
+      </c>
+      <c r="E274">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>491</v>
+      </c>
+      <c r="B275" t="s">
+        <v>880</v>
+      </c>
+      <c r="C275" t="s">
+        <v>881</v>
+      </c>
+      <c r="D275">
+        <v>14</v>
+      </c>
+      <c r="E275">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>492</v>
+      </c>
+      <c r="B276" t="s">
+        <v>882</v>
+      </c>
+      <c r="C276" t="s">
+        <v>883</v>
+      </c>
+      <c r="D276">
+        <v>14</v>
+      </c>
+      <c r="E276">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>493</v>
+      </c>
+      <c r="B277" t="s">
+        <v>884</v>
+      </c>
+      <c r="C277" t="s">
+        <v>885</v>
+      </c>
+      <c r="D277">
+        <v>14</v>
+      </c>
+      <c r="E277">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>494</v>
+      </c>
+      <c r="B278" t="s">
+        <v>886</v>
+      </c>
+      <c r="C278" t="s">
+        <v>887</v>
+      </c>
+      <c r="D278">
+        <v>14</v>
+      </c>
+      <c r="E278">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>495</v>
+      </c>
+      <c r="B279" t="s">
+        <v>888</v>
+      </c>
+      <c r="C279" t="s">
+        <v>889</v>
+      </c>
+      <c r="D279">
+        <v>14</v>
+      </c>
+      <c r="E279">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>496</v>
+      </c>
+      <c r="B280" t="s">
+        <v>890</v>
+      </c>
+      <c r="C280" t="s">
+        <v>891</v>
+      </c>
+      <c r="D280">
+        <v>14</v>
+      </c>
+      <c r="E280">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>497</v>
+      </c>
+      <c r="B281" t="s">
+        <v>892</v>
+      </c>
+      <c r="C281" t="s">
+        <v>893</v>
+      </c>
+      <c r="D281">
+        <v>14</v>
+      </c>
+      <c r="E281">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>498</v>
+      </c>
+      <c r="B282" t="s">
+        <v>894</v>
+      </c>
+      <c r="C282" t="s">
+        <v>895</v>
+      </c>
+      <c r="D282">
+        <v>14</v>
+      </c>
+      <c r="E282">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>499</v>
+      </c>
+      <c r="B283" t="s">
+        <v>896</v>
+      </c>
+      <c r="C283" t="s">
+        <v>897</v>
+      </c>
+      <c r="D283">
+        <v>14</v>
+      </c>
+      <c r="E283">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" t="s">
+        <v>898</v>
+      </c>
+      <c r="C284" t="s">
+        <v>899</v>
+      </c>
+      <c r="D284">
+        <v>14</v>
+      </c>
+      <c r="E284">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>501</v>
+      </c>
+      <c r="B285" t="s">
+        <v>900</v>
+      </c>
+      <c r="C285" t="s">
+        <v>901</v>
+      </c>
+      <c r="D285">
+        <v>14</v>
+      </c>
+      <c r="E285">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>502</v>
+      </c>
+      <c r="B286" t="s">
+        <v>902</v>
+      </c>
+      <c r="C286" t="s">
+        <v>903</v>
+      </c>
+      <c r="D286">
+        <v>14</v>
+      </c>
+      <c r="E286">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>503</v>
+      </c>
+      <c r="B287" t="s">
+        <v>904</v>
+      </c>
+      <c r="C287" t="s">
+        <v>905</v>
+      </c>
+      <c r="D287">
+        <v>14</v>
+      </c>
+      <c r="E287">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>504</v>
+      </c>
+      <c r="B288" t="s">
+        <v>906</v>
+      </c>
+      <c r="C288" t="s">
+        <v>907</v>
+      </c>
+      <c r="D288">
+        <v>15</v>
+      </c>
+      <c r="E288">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>505</v>
+      </c>
+      <c r="B289" t="s">
+        <v>908</v>
+      </c>
+      <c r="C289" t="s">
+        <v>909</v>
+      </c>
+      <c r="D289">
+        <v>15</v>
+      </c>
+      <c r="E289">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>506</v>
+      </c>
+      <c r="B290" t="s">
+        <v>910</v>
+      </c>
+      <c r="C290" t="s">
+        <v>911</v>
+      </c>
+      <c r="D290">
+        <v>15</v>
+      </c>
+      <c r="E290">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>507</v>
+      </c>
+      <c r="B291" t="s">
+        <v>912</v>
+      </c>
+      <c r="C291" t="s">
+        <v>913</v>
+      </c>
+      <c r="D291">
+        <v>15</v>
+      </c>
+      <c r="E291">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>508</v>
+      </c>
+      <c r="B292" t="s">
+        <v>914</v>
+      </c>
+      <c r="C292" t="s">
+        <v>915</v>
+      </c>
+      <c r="D292">
+        <v>15</v>
+      </c>
+      <c r="E292">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>509</v>
+      </c>
+      <c r="B293" t="s">
+        <v>916</v>
+      </c>
+      <c r="C293" t="s">
+        <v>917</v>
+      </c>
+      <c r="D293">
+        <v>15</v>
+      </c>
+      <c r="E293">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>510</v>
+      </c>
+      <c r="B294" t="s">
+        <v>918</v>
+      </c>
+      <c r="C294" t="s">
+        <v>919</v>
+      </c>
+      <c r="D294">
+        <v>15</v>
+      </c>
+      <c r="E294">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>511</v>
+      </c>
+      <c r="B295" t="s">
+        <v>920</v>
+      </c>
+      <c r="C295" t="s">
+        <v>921</v>
+      </c>
+      <c r="D295">
+        <v>17</v>
+      </c>
+      <c r="E295">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E90">
-    <sortCondition ref="A1:A90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E297">
+    <sortCondition ref="D1:D297"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2983,203 +8217,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05CE61A-AA91-7C4D-B0E1-C83EEC008D58}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B2" sqref="B2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>140.26573959999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.48691179699999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2">
+        <v>111.51462550253628</v>
+      </c>
+      <c r="D2">
+        <v>0.57948273716762821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
-        <v>111.51462549999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.57948273699999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3">
+        <v>91.055211779691007</v>
+      </c>
+      <c r="D3">
+        <v>0.56951048382691472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
-        <v>136.1525049</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.452383272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4">
+        <v>84.467821917303866</v>
+      </c>
+      <c r="D4">
+        <v>0.47344993932847573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>91.055211779999993</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.56951048400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5">
+        <v>165.78487961222444</v>
+      </c>
+      <c r="D5">
+        <v>0.57682267507421259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>84.467821920000006</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.47344993899999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>135.85168651594546</v>
+      </c>
+      <c r="D6">
+        <v>0.55900666135943733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
-        <v>67.864570979999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.29678136399999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7">
+        <v>145.49815898078904</v>
+      </c>
+      <c r="D7">
+        <v>0.59630767164094156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
-        <v>40.081526820000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.46847941100000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8">
+        <v>40.081526824723333</v>
+      </c>
+      <c r="D8">
+        <v>0.46847941137022847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
-        <v>145.14631589999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.72892480599999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9">
+        <v>65.921005994342039</v>
+      </c>
+      <c r="D9">
+        <v>0.59070228144881498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
-      <c r="B10" s="2">
-        <v>107.7945019</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.57256744199999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10">
+        <v>7.6157284650509443</v>
+      </c>
+      <c r="D10">
+        <v>0.74217821829845554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
-        <v>65.921005989999998</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.590702281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11">
+        <v>27.212347971280767</v>
+      </c>
+      <c r="D11">
+        <v>0.33768676509959206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
-        <v>27.21234797</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.337686765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12">
+        <v>44.72301321760019</v>
+      </c>
+      <c r="D12">
+        <v>0.48231339192438649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
-        <v>154.28244470000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.59772020199999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13">
+        <v>30.143859008403446</v>
+      </c>
+      <c r="D13">
+        <v>0.50093519962015987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
-        <v>91.055016890000005</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.56951046699999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>116.60407779734351</v>
+      </c>
+      <c r="D14">
+        <v>0.51971513046715889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>29</v>
       </c>
-      <c r="B15" s="2">
-        <v>154.28283429999999</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.59772255299999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15">
+        <v>85.408560768769192</v>
+      </c>
+      <c r="D15">
+        <v>0.6154692088160163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>30</v>
       </c>
-      <c r="B16" s="2">
-        <v>119.92160320000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.65429836399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16">
+        <v>103.49058622239721</v>
+      </c>
+      <c r="D16">
+        <v>0.4773902570264737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>31</v>
       </c>
-      <c r="B17" s="2">
-        <v>84.467660319999993</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.47344983400000001</v>
+      <c r="B17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17">
+        <v>5.7577335559780334</v>
+      </c>
+      <c r="D17">
+        <v>0.77478830530174503</v>
       </c>
     </row>
   </sheetData>
@@ -3189,221 +8475,240 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F007D7E-4B32-804E-934D-C00C0CC5DEA5}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX2)</f>
+      <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2">
         <v>1.5069005478449615</v>
       </c>
-      <c r="C2">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY2)</f>
+      <c r="D2">
         <v>0.44253392885989812</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX3)</f>
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3">
         <v>28.77010291085363</v>
       </c>
-      <c r="C3">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY3)</f>
+      <c r="D3">
         <v>0.24313351275683689</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX4)</f>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4">
         <v>30.839695239091895</v>
       </c>
-      <c r="C4">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY4)</f>
+      <c r="D4">
         <v>0.30101799760251141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX5)</f>
+      <c r="B5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5">
         <v>2.1487764431445542</v>
       </c>
-      <c r="C5">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY5)</f>
+      <c r="D5">
         <v>0.44483423435766761</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX6)</f>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6">
         <v>35.711436857147255</v>
       </c>
-      <c r="C6">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY6)</f>
+      <c r="D6">
         <v>0.30136693001294718</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX7)</f>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7">
         <v>22.617683809997072</v>
       </c>
-      <c r="C7">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY7)</f>
+      <c r="D7">
         <v>0.41741421486747604</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX8)</f>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8">
         <v>67.864573016786863</v>
       </c>
-      <c r="C8">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY8)</f>
+      <c r="D8">
         <v>0.29678118303124462</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX9)</f>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9">
         <v>33.930565393815712</v>
       </c>
-      <c r="C9">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY9)</f>
+      <c r="D9">
         <v>0.40324447912973482</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX10)</f>
+      <c r="B10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10">
         <v>56.735320632643443</v>
       </c>
-      <c r="C10">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY10)</f>
+      <c r="D10">
         <v>0.30434897211778833</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX11)</f>
+      <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11">
         <v>27.212077493587195</v>
       </c>
-      <c r="C11">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY11)</f>
+      <c r="D11">
         <v>0.33768645789276319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX12)</f>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12">
         <v>1.374002846451184</v>
       </c>
-      <c r="C12">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY12)</f>
+      <c r="D12">
         <v>0.63891090336571543</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX13)</f>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13">
         <v>41.875773315397645</v>
       </c>
-      <c r="C13">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY13)</f>
+      <c r="D13">
         <v>0.40890348220389972</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX14)</f>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14">
         <v>22.38339112075289</v>
       </c>
-      <c r="C14">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY14)</f>
+      <c r="D14">
         <v>0.45584869943057882</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX15)</f>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15">
         <v>26.810215150499399</v>
       </c>
-      <c r="C15">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY15)</f>
+      <c r="D15">
         <v>0.36993421428983891</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AX16)</f>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16">
         <v>1.459110249027147</v>
       </c>
-      <c r="C16">
-        <f>EXP(-'[1]7_4comp_5st_all_SP_solvus_true_'!AY16)</f>
+      <c r="D16">
         <v>0.44773976749981748</v>
       </c>
     </row>
